--- a/data/hotels_by_city/Dallas/Dallas_shard_128.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_128.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="949">
   <si>
     <t>STR#</t>
   </si>
@@ -189,6 +189,9 @@
     <t>Full disclosure: I am a Marriott premium memberFrom check-in to check-out, we had a great stay at the Courtyard Bedford. CY Bedford is conveniently located near DFW (about 10-15 minutes depending on traffic) and it is very easy to get to off the highway system near the airport.  The rooms were clean with plenty of electricity near the beds for charging devices.  We were on the 3rd floor and it was quiet.  The hotel serves a lot of airline crews so the wing that we were on was labeled "Daytime Sleepers - Quiet" and that was fine.  Internet was very fast and reliable and I was able to conduct video-Skype with a client without interruption or latency.Like all Marriott Coutyards, there is no concierge service nor free breakfast.  Everything is pay-at-the bistro.  (It's been a constant complaint of mine that the Courtyard is not for the business oriented traveler).Service was top notch from everyone, and my apologies for not getting any first names for recognition.  Everyone that I had contact with was friendly and helpful.More</t>
   </si>
   <si>
+    <t>saleaway06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r576109448-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -219,6 +222,9 @@
     <t>We enjoyed our stay at the Courtyard by Marriott. The staff was fantastic both at the front desk and the bistro. We especially appreciate the courtesy shuttle that your hotel offered to our group to our annual event.  Please recognize some top notch employees that you have working at your hotel.  The three we hope that you will recognize, were Jeff, Alex and Ashton for their hospitality while we were in town for the weekend.More</t>
   </si>
   <si>
+    <t>SSHotelman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r575218372-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -243,6 +249,9 @@
     <t>From the time of check-in until departure every staff member I encountered was friendly, had a smile and offered a pleasant greeting. The rooms and the property were clean and well maintained- I will stay here again.More</t>
   </si>
   <si>
+    <t>GlobalTraveller_EUR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r569623812-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -270,6 +279,9 @@
     <t>Spent a night there on a business trip. Conveniently located close to the airport, typical Courtyard. You find immediately what you're looking for once you have been in some of these hotels. Friendly and helpful staff, clean rooms - all basic requirements covered.More</t>
   </si>
   <si>
+    <t>G H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r562678674-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -298,6 +310,9 @@
   </si>
   <si>
     <t>Poor customer service. I was told when I checked in our rate included breakfast. We came downstairs and were not on the list. Of course the person who told me that was not in and the front desk person on duty was very rude about it. $159 per night and no breakfast at a courtyard, skip it. Better service with cleaner hotels and nicer staff elsewhere. More</t>
+  </si>
+  <si>
+    <t>Heather S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r507117577-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
@@ -333,6 +348,9 @@
 The service has continued to be subpar, with the exception of the...The housekeeping staff "cleaned" the room but did not change the sheets despite a very visible stain on the middle of the sheet for 2 cleanings. I pulled the covers off the bed to make sure the sheets were changed the next day, and was shocked to see the same sheets on the bed (same stain). On the day of my last stay, I completely pulled the sheets and blankets off the bed and placed them on the sofa to ensure that they would be changed. Upon returning to the room late that night, the covers were on the floor and I did not receive the requested housekeeping service. I reported this info to the front desk clerk, who said she couldn't really do anything about it because housekeeping was gone for the day, but she could bring new sheets if that's what I wanted. She could also send the towels. I asked that a detailed complaint be left for the manager and asked that I be contacted in the morning when management was available. Maria agreed, and said she would have a manager contact me. Upon checkout on the next morning, April the desk clerk said she had no knowledge of the complaint but said maybe it was left in a voicemail or in the managers box, but there was nothing else she could suggest or offer. The service has continued to be subpar, with the exception of the front desk clerk, Kimberly, who is friendly and attentive.  Dirty sheets, not receiving requested items (extra towels, pillows, etc.), and lack of cleanliness are major issues at this location. More</t>
   </si>
   <si>
+    <t>Fares A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r498760681-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -357,6 +375,9 @@
     <t>Stayed there for a week with my family, where we were visiting some relatives in the area. The hotel offers a good quality service, the rooms are spacious and the beds are comfortable. Housekeeping do a good job over there.The hotel has a small gym, which does the job perfectly for a visitor, also there is a nice small swimming pool.The reception staff are very helpful, and they will attend your needs in case you needed anything.There is a small restaurant at the entrance offering breakfast and dinner I think, and it is sufficient for a guest.Finally there is a mini shop in the hotel to buy what you need anytime, the shop offers a simple selection of food, candy , meals , etc.... which are very helpful.The only thing you might miss during your stay is having a safe box in the room ( but they offer a safe box in the reception) , also I believe any hotel should offer particular number of complementary water bottles in the rooms.In conclusion, the hotel is really good and in a great location and the rooms are very good ( great value for money or to redeemPoints at).More</t>
   </si>
   <si>
+    <t>Janet H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r450003302-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -387,6 +408,9 @@
     <t>We got an excellent rate online and when we checked in were offered an upgrade when we weren't pleased with a first floor room. We were upgraded to a suite on the top floor. Had a small bedroom with two queen beds, a large living area with a balcony. Bathroom with open sink area and closed tub/shower room. Bathroom area was small and closet hard to get into but overall a very nice space. Clean with two televisions. Breakfast was not included but believe you could purchase it downstairs at the Bistro. All in all a very nice room and stay!More</t>
   </si>
   <si>
+    <t>Kevin H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r444004129-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -411,6 +435,9 @@
     <t>This is my 3rd visit to this hotel and will not be my last when I have to be in the area.  I have stay in expensive hotels in Grapevine, Tx and did not feel as comfortable as here!My wife felt very secure and was able to get around to every mall she wanted to shop in Arlington, Grapevine, Bedford and downtown Dallas and Fort Worth.  The hotel is upscale and the staff are courteous and able to make accommodations within their powers.  Do not pass this place up when looking for a weekend getaway!  There are restaurants within walking distance and  easy driving distance.More</t>
   </si>
   <si>
+    <t>Pauly T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r440004792-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -438,6 +465,9 @@
     <t>Out of the 30 or so nights I have logged in Marriotts over the last year, this was by far the most disappointing. I'm sorry the girl behind the bistro counter had to work on Thanksgiving, but I would have included a nicer tip had you smiled and been glad I was there - after all, I am the reason you are getting overtime....The housekeeping service didn't leave fresh coffee cups or coffee to replace what we used. No replacement on the shampoo either. Room was clean and quiet, but the service was sub-par. Sorry, Marriott...you didn't make the cut on this stay. Won't stay there again.More</t>
   </si>
   <si>
+    <t>Mbm4bama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r414618073-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -465,6 +495,9 @@
     <t>We visited the Dallas Fort Worth area for the first time this weekend and chose this Courtyard for our visit. We were able to easily get from this hotel to Fort Worth for sightseeing and dinner, to Dallas for sightseeing, to Arlington for a Rangers game, and to Arlington for the Alabama vs USC game!  The hotel was clean, safe and had a great staff. We will visit again when in the area.  More</t>
   </si>
   <si>
+    <t>BurningSnow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r412045729-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -495,6 +528,9 @@
     <t>Standard Courtyard Marriott however this place is pretty cheap for the area. Stayed on a Saturday night for only 7500 points which is a steal. Check In clerk had an attitude, but no big deal, after she found out I checked in online. I'm a silver rewards member and my reservation preferences specifically say I don't want a room near the elevator. Well that's exactly what they gave me. But at least it was at the end of the hall. The hotel is huge it was a 5 minute walk to get to the elevator. Obviously this place was remodeled and branded a Marriott but they did a good job. My king room was new with a great walk in shower. But some of my tv channels had terrible reception which is unacceptable even though I didn't watch much tv. Also the ac until keeps blowing air even when you switch it off on the thermostat which is strange. When I checked out there was an apology at least and a free item from the market. The market restaurant should be open later than just 10a on the weekends. In conclusion, a good deal but some of the minor problems shouldn't be there.More</t>
   </si>
   <si>
+    <t>michaelcwhitter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r408998678-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -519,6 +555,9 @@
     <t>Staff are very friendly and helpful and rooms are at a high standard for the amount you pay. Pool is a decent size and pool temp is ideal for the summer weather. Well situated around several food establishments meant we didnt have to travel far for food.Only downside was found out after we had left. As well as my original room charge i had also been charged a further $40 despite leaving the room in a suitable condition. Would need this issue resolving before i stayed there again. and is the only reason ive marked it down from to a 3.More</t>
   </si>
   <si>
+    <t>Charles1019</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r401419228-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -546,6 +585,9 @@
     <t>First time staying here and glad I did. it is not too far from DFW so convenient. The property is just off the highway and the lobby is updated as are the rooms. the staff are very helpful and friendly. I was able to get upgraded to their one bedroom suite which is spacious, modern and has the most current room update. Plenty of room! My room was comfortable and well appointed. I had a good night sleep so was very happy!More</t>
   </si>
   <si>
+    <t>Pamela H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r393505828-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -567,6 +609,9 @@
     <t>We moved out of DFW area but travel back often. This central location is always our go-to hotel and we have never been disappointed. There are a couple great restaurants you can walk to as well as basic food and beverage available in lobby bistro. Easy highway access too. More</t>
   </si>
   <si>
+    <t>JK M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r383107391-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -591,6 +636,9 @@
     <t>I spent 6 nights at this hotel. It is a typical renovated hotel that shows it age in places. Low water pressure, mold and rust in the bathrooms (small places), and they like to turn off the air conditioning in the hallways during the day. I was able to get a discount through the company I was doing training with, which made it worth the stay.More</t>
   </si>
   <si>
+    <t>relaxatravlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r377448035-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -618,6 +666,9 @@
     <t>As usual, we selected this hotel based on TripAdvisor recommendations and reviews.  This particular Courtyard has old bones, but it's been updated to 2016 standards.  Our king room was as nice as many resorts where we've stayed.  The room had blackout curtains, fridge, microwave, iron, sofa with ottoman, desk, lots of outlets for electronics, and the king bed was very comfortable.  All staff were extremely professional and helpful.  Interior courtyard had wonderful fire pit and ambiance.  Great value.  Highly recommend.More</t>
   </si>
   <si>
+    <t>James G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r375179757-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -642,6 +693,9 @@
     <t>We used this to have an economical option in Arlington Area.  Price really beat other mid-range hotels in the Six Flags area.  This is a standard style Courtyard by Marriott handy to airport in a relatively quiet neighborhood along Hgwy 183 where it merges with 121. Good selection of restaurant options in immediate area.More</t>
   </si>
   <si>
+    <t>Lance A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r374416421-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -666,6 +720,9 @@
     <t>As a frequent traveler, I had some plans change due to some issues getting to the hotel.   When I arrived in the early AM, Andy took the best care of my needs.    Marriott and it's employees always go over and above for their guests.    Thank you Andy and Thank you Marriott.  LanceMore</t>
   </si>
   <si>
+    <t>RHuie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r360732878-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -690,6 +747,9 @@
     <t>I generally stay at Courtyards across the country. I am glad I happened upon this one. The building is very nice, but you can tell it and some of the rooms are dated. You know a newer Courtyard vs. a refurbished one. The staff is usually what sets the locations apart. The staff here is super friendly and able to help out on a moments notice. One cool feature about this location is that you can opt in to not having your room serviced everyday. Instead, they will come by every 3rd day. This is in exchange for an additional 250 Marriott points a night. On the 3rd day I returned from work and noticed that the room hadn't been cleaned yet. A quick call to the front desk resolved this and I had 2 staff members at my door cleaning within 5 minutes. After everything was complete they had apologized for dropping the ball and even offered me something from the market to make up for the issue. I declined because they really didn't drop the ball. I just came in from work super early and was more than likely on someone's to-do list. There are nicer Courtyard locations with the DFW area. However, service like this sets them apart.More</t>
   </si>
   <si>
+    <t>Andrew W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r297691708-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -717,6 +777,9 @@
     <t>The Hotel was a little older, but it was in good shape, clean, very nice!   The staff at the front desk, and Bistro where very helpful, friendly,...  Room was clean and comfortable - and the internet services was good.More</t>
   </si>
   <si>
+    <t>Vinod R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r293869090-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -744,6 +807,9 @@
     <t>Stayed for a couple of days recently while on work. It was close to a number of restaurants and the airport. The rooms are well appointed similar to a regular Courtyard Marriott. There is a bistro for that quick bite and/or breakfast. Internet speed was good. Staff was very friendly.More</t>
   </si>
   <si>
+    <t>Karina P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r291739284-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -771,6 +837,9 @@
     <t>My husband and I stayed at this hotel in April 2015. It was easy to get to (we drove, but I think there's also a shuttle from the airport) and it was a great overall stay. The rooms were clean and recently remodeled. While it was still a bit chilly, we dipped into a pool for a bit and enjoyed it. They have a fire pit area too that I wish we had the time to take advantage of. They have a very nice seating area in the lobby. There are several places to eat nearby, some chain restaurants and some good local eateries. There's free parking available, and we never had an issue finding a spot for our rental. However, it does become pretty full in the evening. Overall, we enjoyed our stay and would stay there again.More</t>
   </si>
   <si>
+    <t>doll1867</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r289143788-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -795,6 +864,9 @@
     <t>This was our first time to stay outside of Arlington on any trip to the DFW area.  I hesitantly booked this room online.  I loved every minute of it.  The staff was gracious and helpful from the minute I walked into the lobby.  The hotel was clean and beautiful.  The pool was spotless and very well maintained.  the location in Bedford was a 15 minute drive to any of the surrounding areas and attractions. Would definitely recommend to anyone.More</t>
   </si>
   <si>
+    <t>FloridaTourist_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r288965319-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -819,6 +891,9 @@
     <t>I wrote a review back in February about this great find.   My 4 favorite things about this hotel was the remodeled interior including rooms, free bottles of cold water at the front desk, warm cookies and a pass to the 24 hr fitness down the street.   I returned today because of those things and he only thing still there is the remodeled rooms.    They did away with all the little extras.   So the things that made this hotel special are gone.   Now it is a typical courtyard with remodeled rooms. It's clean and nice but nothing less than what I expect from a Marriott.  So next time I want to be at the airport I might as well stay at the airport Marriott.   More</t>
   </si>
   <si>
+    <t>bridgettlubbock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r288663893-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -837,6 +912,9 @@
     <t>Stayed at this hotel from July 2015 for 4 days and it was a great hotel. Very clean inside and outside. Pool very clean and warm. Staff extremely friendly. Will definetly stay here again. Convenient near stores restaurants. Give it a definite 5 starsMore</t>
   </si>
   <si>
+    <t>Jonfo1969</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r280538105-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -864,6 +942,9 @@
     <t>I've stayed here a couple of times since my last review so I wanted to comment on a few things from this stay.They underwent a renovation since my last visit and the lobby which needed updating is very nice and no longer an 80's flashback.  Clean room, I'm happy. One criticism though.  I was out of my room for about 9 hours. When I got back my door was cracked open.  Room had been cleaned but the lock was left open so the door didnt shut.  All of my stuff was still in my room so I'm happy nothing was stolen.  Could have been bad but all is ok.  More</t>
   </si>
   <si>
+    <t>fernj2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r277718389-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -888,6 +969,9 @@
     <t>I just spent two nights at this courtyard Marriott for a business trip. I am a huge fan of the Marriott chain of hotels (although they have Pepsi  not coke products ugh) This hotel was not really different as the staff was super friendly, the room was nice, they had the Bistro with Starbucks and other yummy bevies. But and this is a big but, my Verizon cell phone doesn't work there. when I mentioned it they said yes Verizon doesn't work on this whole strip of hotels near this highway. I'm working, I need my phone, I am away from my family, I need my phone. I asked why don't they say something when you make a reservation especially since I make it thru the loyalty membership. They said those people would never know. That said I just can't go back to this nice conveniently located hotel.More</t>
   </si>
   <si>
+    <t>TinTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r268309719-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -912,6 +996,9 @@
     <t>We were there for a wedding.  I had called and checked on using a conference room and was told that we couldn't bring our own food but had to let Courtyard cater.  I decided to do it myself and host the rehearsal dinner at the outdoor venue that the rehearsal and wedding was going to be.  Just as we spread everything out for the rehearsal dinner the tornado sirens started going off as did everyone's cell phones with warnings.  We made a frantic call and explained the situation and the hotel told us to come on and we could bring dinner with us.  They ahd the room open and ready for us and told us if we cleaned it up ourselves there would be no charge.  I can't tell you how much I appreciated this.  They totally destressed a very stressful evening.  The breakfast provided for the wedding guests the next morning was way beyond what I expected.  Thank you, Thank you , Courtyard for making the wedding even more perfect!!!More</t>
   </si>
   <si>
+    <t>TravelManSouth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r267313811-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -936,6 +1023,9 @@
     <t>The first thing you notice when you go down the hallways - it's a redo of an old Courtyard but not in the red.  The red is nice - but after seeing it 100 times, it's boring.  This one is gray.  A bit drab - but nice that it's different.  The rooms too are gray.  They need to add some ccolor accents but....hey, I like that it's different.The gym and breakfast were both very good.  The check in folks and overnight guy very helpful (I lost my phone and he offered to call it to see where it might ring).The Internet - spotty - it kept going to the neighboring hotel's network.Finally, they need new mattresses - this one is soft and my back hurts.Overall a good place.PS - Pappadeux next door for those who love cajun seafood...and they had a bonfire at the pool that a lot of folks were sitting around...in the old style Courtyard that was the original model.More</t>
   </si>
   <si>
+    <t>Cathleen C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r267246570-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1044,9 @@
     <t>This is the second time we've stayed here and something is always mixed up.  When we checked in we were told our rate included breakfast, just like the last time.  We said fine, but once again we were told at breakfast that it wasn't covered.  Very mediocre food ...rubbery croissant that was obviously reheated in a microwave and my husband had eggs, bacon and toast....OVER $23.00!Color scheme in the rooms was changed, but the toilet was cracked, grout dirty and cellophane tape all over the ceiling.  No cups in the room and the refrigerator didn't work, nor did the door close that held it. Our room was on the bottom floor with a view of the parking lot, so it was just a room.  No local newspapers or WSJ, just USA today.  Is this how Marriott is now???More</t>
   </si>
   <si>
+    <t>bubba375</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r261483633-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -981,6 +1074,9 @@
     <t>This was a typical courtyard. It is currently undergoing renovations, so a breakfast wasn't available nor was the fitness center. I would recommend going here after renovations are completed. Plenty of food options nearby, and somewhat convenient to the airport.More</t>
   </si>
   <si>
+    <t>John A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r260598008-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1000,6 +1096,9 @@
   </si>
   <si>
     <t>As my wife and I missed our connecting flight through DFW, being Marriott Members we went through Marriott.com for a Marriott that was close to the airport and made an immediate reservation online. Marriott's website showed this property to be 6.7 miles from the airport. We contacted the hotel in the hopes of getting a shuttle but were informed the hotel does not offer shuttle service. The taxi ride from DFW to the Hotel was the longest 6.7 miles we have ever travelled. It took almost 20 minutes and a $29.00 fare. The return journey the next morning was the same. It would have been cheaper to rent a car for the day. We have no complaints about the Hotel. The hotel itself was very clean and the room comfortable. The front desk staff were pleasant. Free WiFi was a plus. The only reason I did not give a 5 was because of the false advertising on Marriot's website.More</t>
+  </si>
+  <si>
+    <t>Tania W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r257708039-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
@@ -1045,6 +1144,9 @@
     <t>Usually when I am in Fort Worth I stay in the West 7th ave area or the Worthington downtown.  This time I needed to be by the airport and the Marriot was full.  I have never stayed in Bedford before.  I am required to use gov't per diem rates when I travel and t his hotel was below rate...something that I have never seen before.  I was a little worried on what this hotel might look like inside and out.  I was VERY surprised.  The entire hotel has been redone.  Great working lobby to sit and have a drink, read the paper or just relax.  The rooms are typical Courtyard.  A little small but hey have them very well arranged and brand new furnishings.  Great double chair/love seat and king bed.  Well arranged to maximize the space.  Very friendly staff, always free cold water bottles sitting out for guests and hot cookies in the evening on the counter.  Very easy to get here from the airport and return.  Now that I have found this place I plan non staying here more often.More</t>
   </si>
   <si>
+    <t>Tomisine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r252752877-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1063,6 +1165,9 @@
     <t>The hotel was what I expected and was chosen because of its location and road access. Upon afternoon check-in the service was great. The gentleman on duty in the early AM was definitely not personable!  I was told upon check-in that breakfast was served at 6:00 AM; unfortunately, it begins at 6:30 AM.  When I approached the gentleman on duty, he told me that I probably misunderstood the time---I didn't.  I observed this same gentleman during the AM before checking out, he needs an attitude check!!!Also I had the adjoining room with a loud TV on all night that woke me twice. TV appeared to face my sleeping bed wall; if so, the walls are mighty thin.More</t>
   </si>
   <si>
+    <t>laurence_baird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r252083879-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1189,9 @@
     <t>I spent one night at this hotel during a layover and it was one of the best experiences I have had on a layover. The staff are absolutely the best taking care of the finest details to ensure your stay is comfortable. When I called for the shuttle, Rachel was super friendly and did everything to ensure an easy pickup at the airport and had everything ready when I arrived. The rooms are clean and well taken care of. Breakfast was delicious! The price is very reasonable given the professionalism of the staff and how well they take care of every detail. Definitely will stay here again!More</t>
   </si>
   <si>
+    <t>Silverfox72034</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r251673718-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1102,6 +1210,9 @@
     <t>We only spent one night at the facility but the friendliness and quality service that was demonstrated by each Associate was remarkable. We had traveled over 300 miles in order to attend a family member's funeral and the sincere warmth beginning at check-in and the remainder of the overnight stay could not have come at a better time.More</t>
   </si>
   <si>
+    <t>alaskandeb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r251092629-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1126,6 +1237,9 @@
     <t>Wow!  I was in town for business for one night, and found the Courtyard to have a great price for what I needed.  The hotel is very conveniently located and easy to find.   We are frequent travelers, and were offered an available upgrade to a suite - yes please!  The suite was beautiful and HUGE!  I think this property was just upgraded?  Everything seemed fresh and new - the livingroom had a wonderful comfy lounging couch and two comfy side chairs around the coffee table.  There was a desk as well, and then a "kitchen area" where the mini fridge, microwave and coffee pot were.... and lots of counter space to put my own things!  The bathroom was decent size - shower/toilet area a little tight but not cramped feeling.  The closet/sink area (seperated by a door to the toilet/shower room) was bright and open.  Then the bedroom - wow - huge again - very open and fresh and clean and relaxing!  ALSO - temperature controls in BOTH rooms!  Very nice!  I would stay here again in a heartbeat!  Oh - and I didn't even get to enjoy the 1st floor patio because I was in a rush to leave... but next time I will enjoy a lingering cup of coffee out on the patio - which faces a courtyard.  THANK YOU to the friendly and helpful staff who made my stay fabulous!  :)  Looking forward to seeing you again!More</t>
   </si>
   <si>
+    <t>drlukeholter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r247706287-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1150,6 +1264,9 @@
     <t>I checked into this hotel and got into my room and requested a shuttle in the morning because I saw in the guest guide that was in the room that they had shuttle service. The night audit in an aggressive tone said "we only give shuttle rides to people that work at the airport because we have contracts with the major airlines and don't service our guests" I informed him that in the guest guide it's stated they do provide shuttles to the guests and his reply was "well that's old and that's just the way it is now" I am a Marriott member and I will not be staying at this hotel again due to the rude behavior and feeling like as a guest I didn't matter. I have never stayed at a Marriott and encountered this.More</t>
   </si>
   <si>
+    <t>Jennifer T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r238462680-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1174,6 +1291,9 @@
     <t>I stayed at the Courtyard for a business trip last month.  The staff was excellent, and the meeting space was great!  The rooms are big, and the AC was awesome!  I will definately be staying here next time I am in the Dallas Area!More</t>
   </si>
   <si>
+    <t>jmridl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r238455647-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1309,9 @@
     <t>Stayed at the property for 3 nights; very very friendly and helpful staff. Always accommodating!! Room was great - newly renovated. This was a business trip with use of the hotel's meeting facilities. They were newly renovated as well and everything to do with that was great as well. Even with the renovation going on, the staff was great and ever helpful in all situations.More</t>
   </si>
   <si>
+    <t>oakland620</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r238389996-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1210,6 +1333,9 @@
     <t>I was at our annual conference, the hotel and staff were "Outstanding" the hotel is clean and the breakfast was great, I met Gigi and Beryl in the sales office, these two  know how to take care of customers, they made sure the meeting room was setup to our needs. The new renovations have made this hotel " Outstanding"More</t>
   </si>
   <si>
+    <t>Julia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r238387500-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1225,6 +1351,9 @@
     <t>This hotel has done recent renovations and I just love the new furniture in the rooms, very modern and breakfast area was very nice! The staff were so welcoming the moment we walked in the door they were willing to help us with anything we needed! There were places to eat with in walking distance which was so nice when we didn't want to drive anywhere!  I will definitely be back!More</t>
   </si>
   <si>
+    <t>Alex C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r238384615-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1240,6 +1369,9 @@
     <t>I recently stayed at the Courtyard in Bedford TX for a business meeting and the staff was very friendly, professional and attentive to my needs.The newly remodeled rooms looks awesome and the new bed is very comfortable.  The front desk and lobby is also looking great!!More</t>
   </si>
   <si>
+    <t>Lovethecayamnislands</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r238188148-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1264,6 +1396,9 @@
     <t>they have just updated their rooms and put in a shower instead of a tub it's great. staff very helpful. on mon nights they have a free football night with snacks, beer, wine, &amp; soda. the restaurant wasn't finished but looked in and think it will be very niceMore</t>
   </si>
   <si>
+    <t>Frank L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r238187159-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1285,6 +1420,9 @@
     <t>Have spent 40+ nights at courtyards this year and by far the most disappointing. If you aren't going to have a bistro open put it in big banner on your website and give a huge discount. Never would have booked a room had I known. Extremely disappointed and dismayed (way way overpriced all things considered)More</t>
   </si>
   <si>
+    <t>Michbos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r237879243-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1303,6 +1441,9 @@
     <t>I've been coming to this Courtyard for approximately 10 years. Yes, they have been going through room renovations which is difficult. However, they are doing a great job and the new rooms are clean &amp; great. The staff is always helpful and kind, but especially the Director of Sales Buerel. She is an exceptional person &amp; makes this hotel on the top of my list.More</t>
   </si>
   <si>
+    <t>Badtazman71</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r237201200-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1321,6 +1462,9 @@
     <t>I was there for a business meeting at the hotel and stayed 2 nights and they went above and beyond for our 2 day meeting and kudos to The GM and her team! I highly recommend this over any other hotel in the area.More</t>
   </si>
   <si>
+    <t>ROCKHTOWN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r229661209-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1340,6 +1484,9 @@
   </si>
   <si>
     <t>Our youth group was debating between 3 hotels nearby Arlington Hoop It Up event.  The group sales manager for this hotel stated that they would beat our lowest rate and that this rate would include breakfast.  Once we had signed the agreement and then showed up to check in we were informed there was "an extra fee" for breakfast.  When we asked to speak to our sales rep who had agreed to include breakfast the secretary said she would try to get in touch with her but she was nowhere to be found and did not respond to phone calls.  This caused us to drive an extra 20 mins in pouring rain to find breakfast for our kids and be late to our event.  Additionally, when asked about this to the sales manager the following week they agreed to give me some points for the stay however, the amount of points they agreed to give were far below the points they were supposed to give me.  I then found out that they were supposed to give points to any Rewards Platinum member that they could not offer breakfast too (which would qualify me for free breakfast or points in lieu of it in addition to a free gift.  I received neither the bonus points required for the issue nor the free gift as required by the rewards program.  The hotel itself was under renovations (unbeknownst to us) and made similar...Our youth group was debating between 3 hotels nearby Arlington Hoop It Up event.  The group sales manager for this hotel stated that they would beat our lowest rate and that this rate would include breakfast.  Once we had signed the agreement and then showed up to check in we were informed there was "an extra fee" for breakfast.  When we asked to speak to our sales rep who had agreed to include breakfast the secretary said she would try to get in touch with her but she was nowhere to be found and did not respond to phone calls.  This caused us to drive an extra 20 mins in pouring rain to find breakfast for our kids and be late to our event.  Additionally, when asked about this to the sales manager the following week they agreed to give me some points for the stay however, the amount of points they agreed to give were far below the points they were supposed to give me.  I then found out that they were supposed to give points to any Rewards Platinum member that they could not offer breakfast too (which would qualify me for free breakfast or points in lieu of it in addition to a free gift.  I received neither the bonus points required for the issue nor the free gift as required by the rewards program.  The hotel itself was under renovations (unbeknownst to us) and made similar to a refitted apartment building turned into a hotel.  The quality of the food was probably not that good based on these deceptive business practices so we were likely better off to not have had their food.  GM once told of my issues and new information, had claimed breakfast was removed from our agreement since we didn't stay enough nights or enough rooms when this was never told to me nor was it said in an agreement.  When I made an appointment to speak about the matter the GM has since ignored my phone calls after only requesting points be given for this incident.  I would not recommend this hotel to anyone other than to the BBB for conducting deceptive trades and practices with this bait and switch breakfast tactic.More</t>
+  </si>
+  <si>
+    <t>Jenny S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r229038770-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
@@ -1371,6 +1518,9 @@
 While I could get past all of this, the poor customer service was the part that bothered me the most. I tried to request a move to an upstairs room so I would feel a bit safer. The nighttime front desk rep said they were sold out, but we could call in the morning to see if the morning staff could find us new rooms, but when we called in the morning, the front desk rep said they couldn't move us until the afternoon after checkout. It would have been nice for someone on staff to better coordinate this, rather than "passing the buck" to the next shift of employees. I ended up having to stay in that room for 4 nights without ever getting moved. I'll never stay at this property...The hotel was under construction when I stayed there, so I could understand that the stain on the bedspread, poorly designed room setup (bed did not face the TV), and general "motel" feeling would be improved following the completion of the renovation. Besides that, the rooms on the first floor faced out to the parking lot with a sliding glass door leading out, which made me feel like there was a security risk. The breakfast was free due to the ongoing reno, but it would have been nice to have fresh hot breakfast items, rather than scramble eggs, bacon, biscuits, and gravy sitting for hours in chafing dishes. While I could get past all of this, the poor customer service was the part that bothered me the most. I tried to request a move to an upstairs room so I would feel a bit safer. The nighttime front desk rep said they were sold out, but we could call in the morning to see if the morning staff could find us new rooms, but when we called in the morning, the front desk rep said they couldn't move us until the afternoon after checkout. It would have been nice for someone on staff to better coordinate this, rather than "passing the buck" to the next shift of employees. I ended up having to stay in that room for 4 nights without ever getting moved. I'll never stay at this property again.More</t>
   </si>
   <si>
+    <t>Piper R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r226320940-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1398,6 +1548,9 @@
     <t>This hotel is in the process of renovation, so the lobby is not there. That was the only problem we had, and it's not even worth complaining about. Since the breakfast area is being renovated, too, they offered us a free breakfast---not a usual thing with Courtyard Hotels. Clean and comfortable, with a relaxing outdoor pool area.More</t>
   </si>
   <si>
+    <t>Rihannsu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r223305452-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1422,6 +1575,9 @@
     <t>OK - I can understand that a hotel property may want to stay open for business during a renovation - but, jeepers, as a guest I certainly expect to know that up front!  This hotel has no lobby - at all.  Completely closed off for a major renovation.  You "check-in" through a side door.  The check-in clerk was a bit snippy that we hadn't seen the sign by the street pointing out the 'entrance' (arrived after dark and just didn't see it)- Amazingly, there was no direction sign on what once was the lobby entrance.  Anyway - the room was booked on marriott.com and there was no notice about the renovation.  I wouldn'd thave stayed there had I known.  Major demerit, marriott.com, you should know better.  The halls had of saw dust laying about but fortuntately the room was clean and dust free - that's a plus considering the chaos in the rest of the property.  Sandard (dated) Courtyard interior.  I am a Marriott Rewards Platinum - and this was not typical of my experience with Marriott brands.  That said, bottom line - avoid this property until the rebuild is completele.More</t>
   </si>
   <si>
+    <t>htowntravelers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r222979178-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +1599,9 @@
     <t>I thought this was a nice place. It is a place especially for flight crews and weekday travelers to find a good piece of serenity without the hustle and bustle if that is what you want. It can be tricky to get to because of the construction going on in the area but it is worth the while to enjoy a good nights rest.More</t>
   </si>
   <si>
+    <t>Nwanguma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r222626060-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1461,6 +1620,9 @@
     <t>I spent 7 nights and the warm attitude of the staff was impressive, always willing to go the extra mile to make one's stay comfortable. I had no issues with my room throughout my stay. I encourage the staff to keep up their warm attitude.More</t>
   </si>
   <si>
+    <t>Julie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r219908801-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1479,6 +1641,9 @@
     <t>My husband, son and I stayed one night here after driving to Dallas from Nashville in a moving truck.  Needless to say, we were all exhausted and the bed was super comfortable for a great night's sleep.  Our stay was very short, arriving late Sat night and checking out Sunday am, but the hotel was clean, the bathroom size was adequate, and the WIFI provided a good connection.  The only real problem is that the hotel is a little hard to get to because it is located on a one-way street right next to the interstate, and there was a LOT of road construction in the area.  Nothing fancy, but overall a pleasant experience and the rates were actually less than the nearby Holiday Inn Express.More</t>
   </si>
   <si>
+    <t>LLeone1985</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r219855542-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1494,6 +1659,9 @@
     <t>We stayed here for 3 nights. The rooms were clean and comfortable. Plenty of outlets throughout room. Had little courtyards/balconies outside that were very nice. Air conditioner worked well. The staff was extremely nice. There were a few little things that could be improved upon: Showers didn't didn't drain well, elevators were not convenient if you stayed on upper levels. Breakfast was $10 for a fairly basic continental breakfast. I'm also used to a very firm pillow, which I normally travel with because I'm so picky, and theirs just didn't cut it. They bring me a few different pillows to try, which was very appreciated. Overall we were very happy with our stay, and would stay here again.More</t>
   </si>
   <si>
+    <t>highflyah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r218909388-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1512,6 +1680,9 @@
     <t>Staying at a hotel for 2.5 weeks is no fun especially when engaged in a rigorous training program. The staff there were extremely accommodating and friendly. Their genuine concern for my comfort and convenience was felt from the shuttle drivers to the desk agents and housekeeping staff. When passing through Dallas, I would say stay there and get more bang for your buck! And I haven't mentioned that breakfast was included in my rate. It wasn't like Momma used to make but it definitely starts your day off right considering being away from home. More</t>
   </si>
   <si>
+    <t>Robert W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r218294433-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1530,6 +1701,9 @@
     <t>Good: Very nice staff, lots of outlets in the room, great iron, good air conditioning, comfortable bed.Missed Opportunities: Property dated. No restaurant. Elevator LONG way from lobby (don't stay on 2-3 floors unless you are near the elevator... there is a renovation under way, but it's not far along), stairs poorly marked (so you can walk a long way before changing floors, if you don't know where you're going... great if you wear a fitbit).Basically, stay if you get a good deal, but pick another property if price is not prohibitive to you.More</t>
   </si>
   <si>
+    <t>Lisa L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r217210111-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1725,9 @@
     <t>I don't usually expect much from an airport hotel, but this one was perfect.  The staff, from the shuttle driver to the sweet girl at the cafe were wonderful.  The hotel is nicely updated - not your standard Courtyard!More</t>
   </si>
   <si>
+    <t>Dap66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r217156318-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1746,9 @@
     <t>In my work I stay in a lot of hotels.  Rarely have I stayed in one where I found to be more welcoming.  My first morning, while having breakfast a lady circulated around the breakfast area asking guests how they were, if their breakfast was satisfactory, and in general, just being gracious.The staff at the desk were equally friendly and helpful. When the maids, in the hall with their carts smiled, and wished me a good morning or a good day, I was surprised.It is apparent that the staff reflects the priorities of management.  It is a shame that I am so surprised with this welcome, as hotels are supposed to be in the hospitality business.This one does it well.  Now if only the highway construction will complete so access is better.Dapper66 - OKCMore</t>
   </si>
   <si>
+    <t>Lisa G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r215266456-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1587,6 +1767,9 @@
     <t>The hotel was outdated just ok nothing fancy and no complimentary breakfast :( but the best thing about this hotel was our housekeeper Yesenia. She was very polite and very helpful but the one thing that stood out was her encouraging words for my son. She would leave notes to pump him up on his baseball games example, "good luck, hit a home run." My son couldn't wait for us to get back to the hotel just to read her notes lol. She was phenomenal!!!!!More</t>
   </si>
   <si>
+    <t>ShannonW3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r214653896-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1611,6 +1794,9 @@
     <t>Here's the good: hotel staff was very friendly, the gym in the hotel was terrible but they told me I could go to 24 hour fitness and get a free 3 day pass, which I was thrilled about-the gym is a 5 minute walk from the hotel, the thermostat in my room actually worked and kept my room nice and cold in July (I always seem to wake up sweating in hotel rooms and often feel like I can never get the room colder than 68 degrees) and it's close to the airport, the highway and tons of shopping.The bad: The pool outside is small and rather outdated. I wish they had a whirlpool, they didn't. Breakfast was not included. Hotel did not have a bar or restaurant. Room itself was eh. Lobby could use some updating too. Not my favorite Marriott hotel...More</t>
   </si>
   <si>
+    <t>Mr_Classen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r213972671-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1629,6 +1815,9 @@
     <t>For a business traveler, a more than adequate hotel featuring an extraordinary staff at terrific rates.The property is well located for business stays when visiting clients in the DFW metroplex.  Bedford, Hurst, Euless, east Fort Worth.The staff is indeed exceptional.  I watch each and every day as they strive to make each guest feel as important and welcome as they have made me feel.  It is a delight to be known by name to the entire staff.Rooms are clean and properly equipped.  With an upcoming renovation this property will become a real gem in the DFW metroplex area.More</t>
   </si>
   <si>
+    <t>DRE72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r213693301-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1647,6 +1836,9 @@
     <t>I stayed here on a business trip.  The room was clean and quiet, the breakfast was great and the staff is all very friendly and helpful.  It's very conveniently located with may restaurants nearby. Great place to stay if you are in the DFW area!More</t>
   </si>
   <si>
+    <t>Renan H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r213626761-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1662,6 +1854,9 @@
     <t>I received a nice  personal invitation for breakfast from Director of sales Beryl Alexander.This was really a pleasant surprise after a trying few days of flying.I was greeted at the breakfast table by other members of my crew and beryl came by and wished us a happy Fourth of July.Thank youBeryl Alexander,for such a nice gesture and for making a holiday away from home feel like a bit of home.Sincerely, Renan HallMore</t>
   </si>
   <si>
+    <t>katelyn d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r212824781-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1680,6 +1875,9 @@
     <t>Beryl I assume was the manager. Extremely friendly, kind, and helpful!!! This hotel was very clean that was the best part! The rooms were so comfortable. Very quiet and great breakfast! I loved the workout room with so much you could do! Very spacious and so many things to do in the area! More</t>
   </si>
   <si>
+    <t>gcroo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r210993528-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1704,6 +1902,9 @@
     <t>We checked out Tues June 17 after a five day stay here.  Staff were all very nice and helpful.  The breakfasts are delicious and Yolanda and Pam are wonderful!  Convenient to DFW and many nearby restaurants.  Public areas are nicely furnished and decorated.  Good WIFI everywhere plus an office center with two computers and printer.  Limited exercise room, but OK.  CONS: Now for the bad: It was so difficult to sleep in Room 220 because of an old and noisy air conditioner that could not get the room below 67 at night.  So after the second night, we asked to be moved and ended up in Room 212 where the air conditioner was less noisy but could not get the room below 66 all night. Mattresses were well worn in both and of the foam type, causing body heat to build after a few hours if the room temperature is too high.  Air conditioning during the day was not a problem. The  director of sales, a nice lady, said a major renovation is planned for this summer but she was not sure if it would involve upgrading the room air conditioners.  Also, there is NO air conditioning in the halls, so it can be very uncomfortable walking down a hallway given the high heat and humidity of Dallas.  She introduced me to the maintenance manager who blamed room air conditioner problems on guests turning them down too low, causing them...We checked out Tues June 17 after a five day stay here.  Staff were all very nice and helpful.  The breakfasts are delicious and Yolanda and Pam are wonderful!  Convenient to DFW and many nearby restaurants.  Public areas are nicely furnished and decorated.  Good WIFI everywhere plus an office center with two computers and printer.  Limited exercise room, but OK.  CONS: Now for the bad: It was so difficult to sleep in Room 220 because of an old and noisy air conditioner that could not get the room below 67 at night.  So after the second night, we asked to be moved and ended up in Room 212 where the air conditioner was less noisy but could not get the room below 66 all night. Mattresses were well worn in both and of the foam type, causing body heat to build after a few hours if the room temperature is too high.  Air conditioning during the day was not a problem. The  director of sales, a nice lady, said a major renovation is planned for this summer but she was not sure if it would involve upgrading the room air conditioners.  Also, there is NO air conditioning in the halls, so it can be very uncomfortable walking down a hallway given the high heat and humidity of Dallas.  She introduced me to the maintenance manager who blamed room air conditioner problems on guests turning them down too low, causing them to freeze up.  Hello?  This was the first time we EVER had this problem in ANY hotel and it was in  BOTH rooms.  Absent the good things I've mentioned above, this air conditioner problem was bad enough to justify one star.  Director of Sales would talk with guests at breakfast.  That's OK but not in such a loud and self serving voice because it was annoying to hear her urging guests to go to Trip Advisor and complete a positive review, saying  employee bonuses depended on it.  Shame on Marriott if they deprive hard working employees like Pam and Yolanda of their bonuses for things beyond their control!  Minor issue was some missing baseboard tiles in the bathroom of Rm 212 but nice clean tub-shower with plenty of hot water.  My suggestion: focus your renovation resources on the guest rooms as they are showing some deferred maintenance and have a tired look.  The public rooms are fine.More</t>
   </si>
   <si>
+    <t>John K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r209823535-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1722,6 +1923,9 @@
     <t>Courtyard is quickly becoming my favorite hotel when I travel for work.  There is a comfortable consistency in the chain that makes each stay as good or better than the previous stay. I have booked rooms at Courtyards in 4 states and have had no disappointment to speak of. When I'm planning my travel I search for Courtyard first.More</t>
   </si>
   <si>
+    <t>C M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r208410974-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1749,6 +1953,9 @@
     <t>I travel weekly for business, this must be the friendliest Courtyard (Platinum) I have ever stayed at!  Beryl the Director of Sales makes you feel like you really are appreciated.  The GM (I forgot your name, sorry) is helpful in getting you to the Rangers gamer another local area.  The only negative is the lack of cell phone signal by Verizon (not their fault). Thanks for making a stay in Dallas a memorable one.  Highly recommend this location. More</t>
   </si>
   <si>
+    <t>David V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r207744666-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1773,6 +1980,9 @@
     <t>All the service from the front desk is always great. Trey, Myranda , Stephanie , Zachary are always  greeting you with smiles and great service . Beryl in sales is always a great help. Great place to stay , nice and quiet and clean rooms.More</t>
   </si>
   <si>
+    <t>gisyos</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r207742653-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1794,6 +2004,9 @@
     <t>Very sweet,polite and cortious  staff. Made my stay a very inviting one. I want to thanks Yesenia for her great housekeeping service and also a very nice lady named Olga at the Cafe that was very attentive with me. I stayed for just two days and will stay there soon again.Staff like these are the ones that make you come back.Good Job Courtyard!!!!GiselleMore</t>
   </si>
   <si>
+    <t>Hanan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r206996957-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1818,6 +2031,9 @@
     <t>I came in for my husband's cousin's wedding and I loved Miss Olga and Miss Yesie. Olga is from the restaurant and Yesie from housekeeping services. They were very polite, respectful and friendly.  People like this is what I like to see when I stay in hotels. Thank you Olga and Yesie. More</t>
   </si>
   <si>
+    <t>Jessie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r206739737-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1842,6 +2058,9 @@
     <t>Friendly service from front desk, room cleaning, breakfast all over pleasant stay.  Had to extend another night, no problem in accomodating me and provided best possible rate.  Had a plumbing issue, came right away and provided me a free breakfast for the inconvenience.More</t>
   </si>
   <si>
+    <t>Jillkoaciuk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r204805745-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1860,6 +2079,9 @@
     <t>All flights were cancelled to get out of DFW and Matt and Tray at Courtyard totally took care of me!  These guys are so sweet and inviting. The manager, Barray, drove us to the airport to get there on time. The coffee was hot, the rooms were clean, and the courtyard was like a little oasis in a sea if crumminess that seemed to be kicking up a storm. Thank you!More</t>
   </si>
   <si>
+    <t>nevera</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r203025860-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1912,6 +2134,9 @@
   </si>
   <si>
     <t>I've stayed at this Courtyard while travelling on business a couple of times. Overall, it gets the job done and this isn't the nicest area.  This time I saw a board up in the lobby with some fabric swatches, so it looks like they are expecting a renovation - i just hope it isn't only the lobby like most Courtyards.  I didn't eat breakfast at the hotel, but was told there was a buffet there.  Just on the other side of the highway off the frontage road is a Starbucks and an Einstein Bagel so I felt there was no need.  A quick check on Google Maps will let you know you're not that close to the airport so if you don't have a rental car this might not be the best option for you.More</t>
+  </si>
+  <si>
+    <t>Rasvan</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r198441750-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
@@ -1953,6 +2178,9 @@
 The only nice and different touch was the fortune cookie that gave you the opportunity to...Typical business trip and as a Marriott member I looked for a Marriott property in the area. I was disapointed by this property on various observations during my three night stay.It is true that the major roadwork in the area did not help as well from an accessibility point of view but all the other issues were in the manager's reach to improve and make this location more attractive to guests.This is a big property, not spic and span. The breakfast offered is weak in choices, no variation from one day to another, there is only one person to take care of your order plus the buffet area therefore you can wait quite a lot for items to be re-stocked, missing plates and longer waiting times although the hotel is not crowded.The coffee in the lobby is stale and cold, the creamers are missing and you can see that there is no attention to detail and that the guests are taken to heart.Saw people waiting for the airport shuttle almost getting late for their flights and also so the manager on duty giving them a ride with her personal car or calling a taxi.Rooms are regular, the ones further from the lobby and in the back are quieter but there is no wow factor in the furnishings, ammenities, etc.The only nice and different touch was the fortune cookie that gave you the opportunity to ge some additional points on top of the regular stay and your status bonus.I also stayed to the Residence Inn down the backroad and it offers more for less, honestly a better choice where you can get a 2 room suite, breakfast and evening snacks for a cheaper price.More</t>
   </si>
   <si>
+    <t>Harry E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r198328039-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -1977,6 +2205,9 @@
     <t>The staff here at the Courtyard DFW was absolutely fantastic!  Four deserve mention by name: Beryl, Gigi, Myranda and Stephanie.  Even though I stayed only a single night these individuals excelled in service.  Especially Stephanie, a relatively new employee who not only handled my room key issues but also took the time to reset the router for the high speed internet when it was going whacky.  Thanks!I had a 1st floor room, exterior and it was quiet, comfortable and clean, though starting to show some age. The wireless internet was a little dicey until Stephanie reset the router and that seemed to clean it up quickly so I could get my work done before flying out the next morning.I appreciate that this Courtyard has not changed over to the Bistro concept from Marriott Corporate and it still offered a very good breakfast at a reasonable price.Full disclosure: I'm a Marriott premium member.More</t>
   </si>
   <si>
+    <t>jtdman37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r196112673-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2004,6 +2235,9 @@
     <t>This hotel is very clean and the staff was friendly.  But nothing really stood out regarding this property.  I believe it will be remodeled this year.  I booked it because of the reference to DFW airport, but it isn't close to the airport.  I believe over 12 miles; $35.00 cab ride.No airport shuttle and $13.95 breakfast.  A seafood restaurant was the only restaurant in the area that I found.Again, the staff was very good!!More</t>
   </si>
   <si>
+    <t>JeffM981</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r195262833-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2028,6 +2262,9 @@
     <t>From check-in to check-out, a most excellent stay of ten days.  The guest services personnel are courteous, attentive and helpful.  The breakfast bar is really good, and for the price, impossible to beat for either value, taste or service.  The housekeeping staff was truly the best part of the stay, as I found each day that their attention to detail and occasional notes made me feel like I was truly a special guest.  And if your housekeeper is Olga, you will be nicely surprised at the care and kindness she shows each day making up the room.More</t>
   </si>
   <si>
+    <t>KidInfiniti</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r187694890-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2055,6 +2292,9 @@
     <t>Very friendly staff.  They really do try hard to make you feel welcome.  Not here to critique state of Texas, however, construction around the area makes this an obstacle course to get to the hotel and surrounding attractions.Hotel lobby and rooms seem little outdated but still very clean.  As a purely value proposition room rate is reasonable. The construction around the area is a deal-breaker for me.  Will consider hitel again in the future once construction is done.More</t>
   </si>
   <si>
+    <t>GVL01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r186022954-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2076,6 +2316,9 @@
     <t>From our initial contact to make a reservation until our departure we were extremely pleased with the pleasant and efficient staff. The rooms were clean. The breakfast was good and kitchen staff accommodating. It was near the airport and an easy location to get around. Would definitely return to this location in the future.More</t>
   </si>
   <si>
+    <t>Sydney Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r178837503-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2118,6 +2361,9 @@
     <t>If you take away the fact that the whole area there around the hotel is under construction then it would be better.  I'm not here to review the great State of Texas though.... The hotel seems a bit outdated to me.  The room I stayed in was nice enough and roomy enough but the lobby area is a flashback to the 1980's (in my opinion).  I will stay here again and in fact have a king suite room booked for next week.  I travel to this area on business and it's convenient to where I need to be.More</t>
   </si>
   <si>
+    <t>Chellebysea</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r162067172-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2145,6 +2391,9 @@
     <t>I really love the Marriott brands and trust them fully. I have worked in the hospitality industry and am a bit of a inspector when I get to the room. Check for bed bugs, wipe everything with Lysol...do my own little check-a-roo because you need to especially bed bugs.  You'll feel safe to know there were none here. This was a very clean Marriott and did the job but it was very run down. The mattress had stains where someone had spilled a coke and it had never been cleaned professionally, and the carpet by that side and the nightstand were the same. How can housekeeping overlook this? I'm sure this was one room however this does sit on a freeway exit and I'm sure it's a hotel that is used a lot. Hopefully next time when I try another Marriott property in town I won't be disappointed.More</t>
   </si>
   <si>
+    <t>Becky K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r160571943-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2163,6 +2412,9 @@
     <t>I arrived at the Courtyard after a very late flight arrival.  Although the hotel is tucked back in the corner it was easy to find.  The lobby was warm and inviting and check in was the fastest I had ever witnessed.  The room, comfortable, clean, and fresh.  I slept very comfortable, and although there are little areas that need work... wallpaper peeling in the bathroom, paint needs touch-up, I would stay here again.  Breakfast was a tad disappointing as there was no free coffee in the lobby and I had to purchase Starbucks.  The breakfast sandwich I purchased was tasty and a reasonable price.More</t>
   </si>
   <si>
+    <t>Jeanette G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r160567077-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2178,6 +2430,9 @@
     <t>My fiancé and I came to stay (5/10-5/12/2013) for a concert. I love Mariotts to begin with. The service desk was great. We weren't able to check in until 2AM and the concierge was very accommodating. I am a fan of their linens, they are so comfortable and give you a sense of home. We were placed on the ground floor right by a door so it was a bit noisy. Our room was lacking some of the basic amenities, but we didn't mind. Overall it was a great stay.More</t>
   </si>
   <si>
+    <t>EJMK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r159741561-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2205,6 +2460,9 @@
     <t>This Courtyard is a good choice for a business trip.  The location is fairly close to the airport and very close to several major companies.  There is a large shopping area with plenty of restaurants within a short drive.  The staff was very friendly and assisted with directions and dining reservations.  The lobby included a bistro that was open most of the day and late into the evening.  There were plenty of casual seating areas to eat, have a drink, or hold a meeting.More</t>
   </si>
   <si>
+    <t>veebee43</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r155643913-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2226,6 +2484,9 @@
     <t>Overall it was a pleasant stay with everything I needed to get business done.  Nice clean room; good size.  Location was great since I didn't rent a car.  I was with other staff from my company, so we had a service that drove us.  Comfortable beds meant a good night's sleep.  Not crowded, it was quiet and just right for a big hotel close to the airport.More</t>
   </si>
   <si>
+    <t>papanew77363</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r153565164-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2244,6 +2505,9 @@
     <t>The hotel was very good with nice large rooms  with sofas. The construction on the Airport Fwy made it difficult to get to the motel, but the close proximity to Pappadeaux's restaurant more than made up for the the construction woes. The property was clean and well-maintained. The elevator (only one) is in the far northwest corner of large hotel and would have been a problem, but the deskclerk did a good job to telling us to drive to the far end of the bldg and drop off our luggage before parking-- minor inconvenience! Would stay here again in a heartbeat!More</t>
   </si>
   <si>
+    <t>MLNC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r152337157-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2262,6 +2526,9 @@
     <t>I left this property feeling well-served. Great staff, comfortable bed. The hotel is huge, but it never seemed crowded. Breakfast was maybe below-average, but with the rate I got, I cannot complain. Be warned, however, about the freeway construction in front of the hotel. I never heard any noise, but simply getting to the hotel every day was a challenge. I felt like I was at war with my GPS. Keep your eyes open and you'll find it--eventually. More</t>
   </si>
   <si>
+    <t>jcivitello</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r141587048-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2287,6 +2554,9 @@
   </si>
   <si>
     <t>seriously best beds in the entire world. very quiet hotel, staff and guests dont bother you. lots of parking close to your room, all rooms have balconies or sliding doors. no room service, but good restaurants and bars nearby.More</t>
+  </si>
+  <si>
+    <t>Jane D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r131851314-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
@@ -2324,6 +2594,9 @@
 Imagine my surprise when I called the hotel from the hospital to be picked up, and was told by the person then answering the phone that the shuttle was only for the airline crews staying at the hotel!  Not wanting to argue, I asked for the number of a taxi.  Well, I called the taxi, waited for nearly an hour and got screamed at by the driver who was very upset that he had been dispatched from Arlington for such a short ride.  Well, that is life.  I learned quickly to make all of my arrangements for shuttle service and to "tag along" with the airline crews for the early run for the airport when someone knowledgeable was...Simply because the location was so close to the hospital where my brother was ill.  And I am going back next week.Depending on who was on duty at the front desk made a huge difference in what you were told regarding shuttle service and times, and telephone numbers for taxis, what was and was not included, etc.  Place was clean, no complaints.  Beds very comfortable.I chose not to rent a car since Texas Health Harris Methodist Hospital Hurst-Euless-Bedford (HEB) was right across the street (not able to walk because of highways and construction) and I was told the complimentary shuttle ran until 10:00 pm each night.  My main purpose for my stay was to visit my brother in the hospital.Imagine my surprise when I called the hotel from the hospital to be picked up, and was told by the person then answering the phone that the shuttle was only for the airline crews staying at the hotel!  Not wanting to argue, I asked for the number of a taxi.  Well, I called the taxi, waited for nearly an hour and got screamed at by the driver who was very upset that he had been dispatched from Arlington for such a short ride.  Well, that is life.  I learned quickly to make all of my arrangements for shuttle service and to "tag along" with the airline crews for the early run for the airport when someone knowledgeable was at the front desk.All I can say is make sure the person at the front desk knows what they are doing or insist on speaking to someone who does!One of the ladies was a complete delight, which is the only reason I am staying there again next week.More</t>
   </si>
   <si>
+    <t>hurricane48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r130631789-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2348,6 +2621,9 @@
     <t>Nice place with terrific employees. Room was spotless and internet fast. I look forward to returning in JuneMore</t>
   </si>
   <si>
+    <t>poodleone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r129163328-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2373,6 +2649,9 @@
   </si>
   <si>
     <t>Stayed at the Bedford Courtyard by Marriott 4/28/12 after getting it on a 3* $55 Priceline bid. I was a little apprehensive since it is an older property right on the Airport Freeway (which is in the midst of major construction). We were pleasantly surprised. The front desk staff was helpful (provided a king room, no problem) and cheerful. The room was clean and roomy with an in-room fridge. The bathroom was a little dated but clean and the shower was tall and water pressure was good. I was amazed at how dark the room stayed in the morning and that we didn't hear much highway noise. Not our preferred Hyatt Suites for a bid in this area but we were quite content and will be happy to stay there again.More</t>
+  </si>
+  <si>
+    <t>bohemian81</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r127020177-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
@@ -2404,6 +2683,9 @@
 About the room:  it was okay.  The layout of the furniture was very unsettling, though.  Most Courtyard rooms everywhere are the same, and the consistency of the product is typically why guests choose to stay there.  But everything about the room seemed awkward.  In addition, the complimentary toiletries were inadequate.  Finally, I've become spoiled to clock radios that have an IPod jack.  All the rooms where I've stayed in the last year and a half have that feature.  I...I like Marriott properties, in general.  We've never had poor customer service at any of their locations, and at many the service has been stellar--better than any hotel we've patronized.  There weren't any particular problems at check-in for this business trip, but I didn't think the attendant on duty was particularly warm or friendly.  I'd requested a king room for two (which included complimentary breakfast), but when I registered she said because a school district was paying for the room that I couldn't get the government rate.  She made a firm distinction between schools and government, saying they were not the same thing.  As it was late and I was exhausted from the drive into the Metroplex and all of the road construction I'd been battling, I couldn't have cared less.  But then I learned only one breakfast was complimentary because this was a "government rate."  So, their policies seemed a little inconsistent.  I was disappointed in the front desk service.  About the room:  it was okay.  The layout of the furniture was very unsettling, though.  Most Courtyard rooms everywhere are the same, and the consistency of the product is typically why guests choose to stay there.  But everything about the room seemed awkward.  In addition, the complimentary toiletries were inadequate.  Finally, I've become spoiled to clock radios that have an IPod jack.  All the rooms where I've stayed in the last year and a half have that feature.  I sure wish Marriott would jump on that bandwagon.More</t>
   </si>
   <si>
+    <t>cruisenerd_9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r123978256-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2431,6 +2713,9 @@
     <t>I dont have a problem with the Brand however I have stayed in many othere Courtyards and this is so Bad!  Front desk is not very nice or helpfull they look like they hate their Job and the cleaning crew at night around the loby area were giving orders to guests and not minding their own business.  One computer in the Lobby that runs very slow.  The whole building looks like an Ugly Motel with /prison feel to it.  The Restaurant next door was supper expensive so noit too many options as far as food.  Towels are like a Motel 6 quality, bed beds and depressing room.  I would never stay at this location if it was up to me.  The Morning Front sesk crew was much nicer than the evening ones.  Oh, and $3.50 for a bottle of water in the room at a courtyard? I get it for free at the A Loft.. Breakfast is Realy realy bed and not cheap for what you get.  Just skip this place.More</t>
   </si>
   <si>
+    <t>giovanni d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r121207531-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2452,6 +2737,9 @@
     <t>Marriot is getting a bad name by employing people like "lose" the ladys name at the front desk of this location. horrible customer service and completely rude. We will never return to this location and possibly all marriots.More</t>
   </si>
   <si>
+    <t>tree_dhyana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r120465928-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2473,6 +2761,9 @@
     <t>I typically feel like I pay too much for what I get when staying at most hotels.  I payed $100 for the night...the room was big with a kitchen, living room, and sleeping area.  There was an outdoor pool and hot tub, a basketball court I played terribly on but got some excercise, a workout room, and a computer room.  Most places are usually $80 a night and are just the basics with hard beds and ok rooms.  This place was perfect!More</t>
   </si>
   <si>
+    <t>Rileah</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r115855952-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2494,6 +2785,9 @@
     <t>We booked reservations here because most Courtyard Marriotts are very nice hotels.  Here are the reasons we give this hotel a poor rating.  First, the room had ants.  Second, the patio was entirely dirt. Next, even though we were gone all day, when we returned late in the afternoon, the maid would want to clean our room. After the maid would leave she always forgot to leave clean towels. We ate breakfast there on the last day and it was terrible.  I didn't know anyone could mess up breakfast.  After breakfast we went back to our room and found the bill that had been slid under the door.  We were charged $200 for smoking in the room, which is something we never did.  However, we did smoke in the parking lot where we were told we could smoke.  We protest the bill and we were told we had to walk to the street to smoke.  After 30 minutes of protesting the charge, the lady said she would issue a credit for the $200 and gave us a new bill.  The credit card bill came in a couple of weeks later and the charge was still on it and no credit had been issued.  We had to call the corporate office of Marriott to get refunded.   There a plenty of nice hotels in the area.  Stay at one of those.More</t>
   </si>
   <si>
+    <t>dasaky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r110656048-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2515,6 +2809,9 @@
     <t>Stayed here over Memorial Day Weekend.  The property itself is right off the highway, but because of the way it is built, it seems more secluded than that.  The women at the front desk were very helpful, trying to get our three rooms in close proximity to each other.  The rooms were clean, but seemed a little old.  It is a non-smoking property, but you could tell the rooms used to be smoking rooms.  It wasn't real strong, but you could still smell it.  There was no refrigerator or microwave, which was a minus.  It was also kind of laid out weird.  The TV was to the side of the bed, so the person against the wall, would have to look over their bed partner's body to see the TV, if they were watching in bed.  However, I will say, the beds were fabulous.  Extremely comfortable.  Better than the bed I have at home!  I got a good rate online, so I feel the value was good. There were many restaurants close by.   I don't know if we'll stay there again, but it's a place that I would recommend to others.More</t>
   </si>
   <si>
+    <t>BeautifulToni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r101438133-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2533,6 +2830,9 @@
     <t>The ants were an issue, they were in both beds. I told the front desk and they cleaned them right away and the issue was resolved.I just expected more from Marriott.More</t>
   </si>
   <si>
+    <t>Daniela M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r63065375-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2554,6 +2854,9 @@
     <t>We travelled to Texas for a few days in late April and stayed at the Marriott Courtyard in Bedford Texas.  The location was close to the DFW Airport (approx. 10 min) and 30 min from Fort Worth.  The hotel was nice.  Linens were very nice.  We stayed in a King room with walkout to a nice pool, gazebo and garden area.  We asked ahead for extra linens, a mini fridge and an early check in and were very happy to see that all was ready for us when we checked in.  The staff is very pleasant and helpful.  Room was clean.  Saw a few ants in the (6 in total during our 3 night stay) but it's Texas and supposedly ants are a problem there.  They didn't bite or anything which was good.  We didn't use the facilities or hotel restaurant so no opinion there.  The indoor pool closed at 10pm which maybe could have been opened until 11pm.  Complimentary in-room internet but we couldn't get it working so we checked our emails etc by using the hotel lobby business centre which was convenient.Would stay again if we travelled there again.More</t>
   </si>
   <si>
+    <t>Dharmabum87</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r59357453-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
   </si>
   <si>
@@ -2573,6 +2876,9 @@
   </si>
   <si>
     <t>I got stranded in Dallas because of Airline incompetence and they gave me a voucher to stay here.  I was expecting the same as my travel on the airline but was pleasantly surprised.  i called the hotel to ask them to pick me up.  They arrived within 5 minutes.  The hotel is South of the airport and somewhat isolated, but i got a room right away.  It was clean, comfortable, and reasonable (with the voucher).  I think the regular rate was higher than it's worth (I could have stayed at the Westin for $119), but with the voucher I paid $59.  Room was cleaner than most 5 stars.  Only think that would have been nice is better (newer) linens.  These were a bit worn and not the typical nice linens you'd get a regular Marriott.  But they were clean.  Free internet and hot breakfast a bonus. Good option if you get stuck in DFW.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55461-d98835-r2320599-Courtyard_Dallas_DFW_Airport_West_Bedford-Bedford_Texas.html</t>
@@ -3162,8 +3468,12 @@
       <c r="A3" t="n">
         <v>16503</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>126867</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
@@ -3171,7 +3481,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -3180,25 +3490,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3216,21 +3526,25 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>16503</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>69592</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
@@ -3238,7 +3552,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -3247,22 +3561,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
@@ -3283,21 +3597,25 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>16503</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>126868</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
@@ -3305,7 +3623,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -3314,22 +3632,22 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
         <v>53</v>
@@ -3348,21 +3666,25 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>16503</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>86439</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
@@ -3370,7 +3692,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -3379,25 +3701,25 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3409,21 +3731,25 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>16503</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>844</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
@@ -3431,7 +3757,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -3440,22 +3766,22 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
         <v>53</v>
@@ -3470,21 +3796,25 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>16503</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>126869</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
@@ -3492,7 +3822,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -3501,16 +3831,16 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
@@ -3527,21 +3857,25 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>16503</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>21120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
@@ -3549,7 +3883,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -3558,25 +3892,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3594,21 +3928,25 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>16503</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>639</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
@@ -3616,7 +3954,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -3625,25 +3963,25 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>123</v>
       </c>
-      <c r="K10" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" t="s">
-        <v>125</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>116</v>
-      </c>
       <c r="O10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3655,21 +3993,25 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>16503</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>126870</v>
+      </c>
+      <c r="C11" t="s">
+        <v>137</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
@@ -3677,7 +4019,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -3686,22 +4028,22 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="O11" t="s">
         <v>53</v>
@@ -3722,21 +4064,25 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>16503</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>126871</v>
+      </c>
+      <c r="C12" t="s">
+        <v>147</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
@@ -3744,7 +4090,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -3753,25 +4099,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="O12" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3783,21 +4129,25 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>16503</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>49930</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
@@ -3805,7 +4155,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -3814,25 +4164,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="O13" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3844,21 +4194,25 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="X13" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>16503</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>126872</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
@@ -3866,7 +4220,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -3875,25 +4229,25 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="J14" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="K14" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3911,21 +4265,25 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="X14" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>16503</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>311</v>
+      </c>
+      <c r="C15" t="s">
+        <v>177</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
@@ -3933,7 +4291,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -3942,25 +4300,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="J15" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L15" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3976,21 +4334,25 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="X15" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="Y15" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>16503</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>2340</v>
+      </c>
+      <c r="C16" t="s">
+        <v>187</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
@@ -3998,7 +4360,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -4007,25 +4369,25 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="J16" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="L16" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -4037,21 +4399,25 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>16503</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>126873</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
@@ -4059,7 +4425,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -4068,16 +4434,16 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="K17" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
@@ -4094,21 +4460,25 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="X17" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>16503</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>126874</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
@@ -4116,7 +4486,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -4125,25 +4495,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O18" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -4161,21 +4531,25 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="X18" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="Y18" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>16503</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>7909</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
@@ -4183,7 +4557,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -4192,25 +4566,25 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J19" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K19" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4226,21 +4600,25 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="X19" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="Y19" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>16503</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>126875</v>
+      </c>
+      <c r="C20" t="s">
+        <v>223</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
@@ -4248,7 +4626,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -4257,22 +4635,22 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="L20" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
         <v>210</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5</v>
-      </c>
-      <c r="N20" t="s">
-        <v>194</v>
       </c>
       <c r="O20" t="s">
         <v>53</v>
@@ -4287,21 +4665,25 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="X20" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="Y20" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>16503</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>126876</v>
+      </c>
+      <c r="C21" t="s">
+        <v>232</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
@@ -4309,7 +4691,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -4318,16 +4700,16 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="J21" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
@@ -4344,21 +4726,25 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="X21" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="Y21" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>16503</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>4621</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
@@ -4366,7 +4752,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -4375,22 +4761,22 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="J22" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="K22" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
@@ -4411,21 +4797,25 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="X22" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="Y22" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>16503</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>126877</v>
+      </c>
+      <c r="C23" t="s">
+        <v>251</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
@@ -4433,7 +4823,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -4442,22 +4832,22 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s">
         <v>53</v>
@@ -4478,21 +4868,25 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="X23" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="Y23" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>16503</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>126878</v>
+      </c>
+      <c r="C24" t="s">
+        <v>261</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
@@ -4500,7 +4894,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -4509,25 +4903,25 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="J24" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="K24" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="O24" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4545,21 +4939,25 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="X24" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="Y24" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>16503</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>126879</v>
+      </c>
+      <c r="C25" t="s">
+        <v>271</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
@@ -4567,7 +4965,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -4576,25 +4974,25 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="J25" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="K25" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="L25" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4612,21 +5010,25 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="X25" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="Y25" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>16503</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>21662</v>
+      </c>
+      <c r="C26" t="s">
+        <v>280</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
@@ -4634,7 +5036,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -4643,22 +5045,22 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="J26" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="L26" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
@@ -4673,21 +5075,25 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="X26" t="s">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="Y26" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>16503</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>126880</v>
+      </c>
+      <c r="C27" t="s">
+        <v>289</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
@@ -4695,7 +5101,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -4704,25 +5110,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="J27" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="K27" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="L27" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="O27" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4734,21 +5140,25 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="X27" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="Y27" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>16503</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>15829</v>
+      </c>
+      <c r="C28" t="s">
+        <v>296</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
@@ -4756,7 +5166,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -4765,22 +5175,22 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="J28" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="K28" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="L28" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="O28" t="s">
         <v>53</v>
@@ -4795,21 +5205,25 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="X28" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="Y28" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>16503</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>126881</v>
+      </c>
+      <c r="C29" t="s">
+        <v>306</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
@@ -4817,7 +5231,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -4826,22 +5240,22 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="J29" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="O29" t="s">
         <v>53</v>
@@ -4862,21 +5276,25 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="X29" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="Y29" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>16503</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>126882</v>
+      </c>
+      <c r="C30" t="s">
+        <v>315</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
@@ -4884,7 +5302,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -4893,25 +5311,25 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="J30" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="K30" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="L30" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4929,21 +5347,25 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="X30" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="Y30" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>16503</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>68513</v>
+      </c>
+      <c r="C31" t="s">
+        <v>324</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
@@ -4951,7 +5373,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -4960,22 +5382,22 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="J31" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="K31" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="L31" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s">
         <v>53</v>
@@ -4994,21 +5416,25 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="X31" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="Y31" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>16503</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>126883</v>
+      </c>
+      <c r="C32" t="s">
+        <v>333</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
@@ -5016,7 +5442,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -5025,25 +5451,25 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="J32" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="K32" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="L32" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="O32" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -5061,21 +5487,25 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="X32" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="Y32" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>16503</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>126884</v>
+      </c>
+      <c r="C33" t="s">
+        <v>340</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
@@ -5083,7 +5513,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -5092,22 +5522,22 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="J33" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="K33" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="L33" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O33" t="s">
         <v>53</v>
@@ -5126,21 +5556,25 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="X33" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="Y33" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>16503</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>17056</v>
+      </c>
+      <c r="C34" t="s">
+        <v>350</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
@@ -5148,7 +5582,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -5157,25 +5591,25 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="J34" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="K34" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="L34" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="O34" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5191,21 +5625,25 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="X34" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="Y34" t="s">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>16503</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>126885</v>
+      </c>
+      <c r="C35" t="s">
+        <v>358</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
@@ -5213,7 +5651,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -5222,22 +5660,22 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="J35" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="K35" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="L35" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="O35" t="s">
         <v>53</v>
@@ -5258,21 +5696,25 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="X35" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="Y35" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>16503</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>21662</v>
+      </c>
+      <c r="C36" t="s">
+        <v>280</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
@@ -5280,7 +5722,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -5289,22 +5731,22 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="J36" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="K36" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="O36" t="s">
         <v>53</v>
@@ -5323,21 +5765,25 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="X36" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="Y36" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>16503</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>126886</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
@@ -5345,7 +5791,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -5354,22 +5800,22 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="J37" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="K37" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="L37" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="O37" t="s">
         <v>53</v>
@@ -5390,21 +5836,25 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="X37" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="Y37" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>16503</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>126887</v>
+      </c>
+      <c r="C38" t="s">
+        <v>379</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
@@ -5412,7 +5862,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -5421,22 +5871,22 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="O38" t="s">
         <v>53</v>
@@ -5455,21 +5905,25 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="X38" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="Y38" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>16503</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>126888</v>
+      </c>
+      <c r="C39" t="s">
+        <v>387</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
@@ -5477,7 +5931,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -5486,25 +5940,25 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="J39" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="K39" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
       <c r="L39" t="s">
-        <v>356</v>
+        <v>392</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="O39" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5522,21 +5976,25 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="X39" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="Y39" t="s">
-        <v>357</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>16503</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>126889</v>
+      </c>
+      <c r="C40" t="s">
+        <v>394</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
@@ -5544,7 +6002,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -5553,22 +6011,22 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="J40" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="K40" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="L40" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="O40" t="s">
         <v>53</v>
@@ -5589,21 +6047,25 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="X40" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="Y40" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>16503</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>126890</v>
+      </c>
+      <c r="C41" t="s">
+        <v>403</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
@@ -5611,7 +6073,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -5620,22 +6082,22 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="J41" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="K41" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="O41" t="s">
         <v>53</v>
@@ -5650,21 +6112,25 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="X41" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="Y41" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>16503</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>14754</v>
+      </c>
+      <c r="C42" t="s">
+        <v>412</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
@@ -5672,7 +6138,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -5681,22 +6147,22 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J42" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="K42" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O42" t="s">
         <v>53</v>
@@ -5715,21 +6181,25 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X42" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y42" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>16503</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>126891</v>
+      </c>
+      <c r="C43" t="s">
+        <v>421</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
@@ -5737,7 +6207,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -5746,22 +6216,22 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="J43" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="L43" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O43" t="s">
         <v>53</v>
@@ -5780,21 +6250,25 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X43" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y43" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>16503</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>126892</v>
+      </c>
+      <c r="C44" t="s">
+        <v>427</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
@@ -5802,7 +6276,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -5811,22 +6285,22 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="J44" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="K44" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="L44" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="O44" t="s">
         <v>53</v>
@@ -5845,21 +6319,25 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X44" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y44" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>16503</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>126893</v>
+      </c>
+      <c r="C45" t="s">
+        <v>435</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
@@ -5867,7 +6345,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>394</v>
+        <v>436</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -5876,22 +6354,22 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>395</v>
+        <v>437</v>
       </c>
       <c r="J45" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="K45" t="s">
-        <v>396</v>
+        <v>438</v>
       </c>
       <c r="L45" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O45" t="s">
         <v>53</v>
@@ -5912,21 +6390,25 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X45" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y45" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>16503</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>29544</v>
+      </c>
+      <c r="C46" t="s">
+        <v>441</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
@@ -5934,7 +6416,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -5943,22 +6425,22 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="J46" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="K46" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="L46" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O46" t="s">
         <v>53</v>
@@ -5979,21 +6461,25 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X46" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y46" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>16503</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>126894</v>
+      </c>
+      <c r="C47" t="s">
+        <v>447</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
@@ -6001,7 +6487,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -6010,22 +6496,22 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="J47" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="K47" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="L47" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="O47" t="s">
         <v>53</v>
@@ -6044,21 +6530,25 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="X47" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="Y47" t="s">
-        <v>411</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>16503</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>21542</v>
+      </c>
+      <c r="C48" t="s">
+        <v>456</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
@@ -6066,7 +6556,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -6075,22 +6565,22 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="J48" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="K48" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="L48" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="O48" t="s">
         <v>53</v>
@@ -6105,21 +6595,25 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="X48" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="Y48" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>16503</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>126895</v>
+      </c>
+      <c r="C49" t="s">
+        <v>464</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
@@ -6127,7 +6621,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -6136,22 +6630,22 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="J49" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="K49" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="L49" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="O49" t="s">
         <v>53</v>
@@ -6166,21 +6660,25 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X49" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y49" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>16503</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>126896</v>
+      </c>
+      <c r="C50" t="s">
+        <v>471</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
@@ -6188,7 +6686,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -6197,22 +6695,22 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="J50" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="K50" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="L50" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="O50" t="s">
         <v>53</v>
@@ -6233,21 +6731,25 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="X50" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="Y50" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>16503</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>126897</v>
+      </c>
+      <c r="C51" t="s">
+        <v>478</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
@@ -6255,7 +6757,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>431</v>
+        <v>479</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -6264,25 +6766,25 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>432</v>
+        <v>480</v>
       </c>
       <c r="J51" t="s">
-        <v>433</v>
+        <v>481</v>
       </c>
       <c r="K51" t="s">
-        <v>434</v>
+        <v>482</v>
       </c>
       <c r="L51" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6298,21 +6800,25 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="X51" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="Y51" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>16503</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>58242</v>
+      </c>
+      <c r="C52" t="s">
+        <v>486</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
@@ -6320,7 +6826,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>438</v>
+        <v>487</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -6329,22 +6835,22 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="J52" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="K52" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="L52" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
       <c r="O52" t="s">
         <v>53</v>
@@ -6363,21 +6869,25 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="X52" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="Y52" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>16503</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>126898</v>
+      </c>
+      <c r="C53" t="s">
+        <v>496</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
@@ -6385,7 +6895,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -6394,25 +6904,25 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
       <c r="J53" t="s">
-        <v>449</v>
+        <v>499</v>
       </c>
       <c r="K53" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="L53" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="O53" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="n">
@@ -6430,21 +6940,25 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="X53" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="Y53" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>16503</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>126899</v>
+      </c>
+      <c r="C54" t="s">
+        <v>506</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
@@ -6452,7 +6966,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -6461,22 +6975,22 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="J54" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="K54" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="L54" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="O54" t="s">
         <v>53</v>
@@ -6497,21 +7011,25 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X54" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y54" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>16503</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>126900</v>
+      </c>
+      <c r="C55" t="s">
+        <v>515</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
@@ -6519,7 +7037,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -6528,25 +7046,25 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="J55" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="K55" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="L55" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="O55" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6564,21 +7082,25 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X55" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y55" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>16503</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>126901</v>
+      </c>
+      <c r="C56" t="s">
+        <v>523</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
@@ -6586,7 +7108,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -6595,25 +7117,25 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="J56" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="K56" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="L56" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="O56" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6631,21 +7153,25 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X56" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y56" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>16503</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>5790</v>
+      </c>
+      <c r="C57" t="s">
+        <v>530</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
@@ -6653,7 +7179,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -6662,25 +7188,25 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="J57" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="K57" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="L57" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="O57" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="n">
@@ -6696,21 +7222,25 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X57" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y57" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>16503</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>126902</v>
+      </c>
+      <c r="C58" t="s">
+        <v>537</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
@@ -6718,7 +7248,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -6727,25 +7257,25 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="J58" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="K58" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="L58" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="O58" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6763,21 +7293,25 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X58" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y58" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>16503</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>126903</v>
+      </c>
+      <c r="C59" t="s">
+        <v>543</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
@@ -6785,7 +7319,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -6794,16 +7328,16 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="J59" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="K59" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="L59" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
@@ -6830,21 +7364,25 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X59" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y59" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>16503</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>325</v>
+      </c>
+      <c r="C60" t="s">
+        <v>550</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
@@ -6852,7 +7390,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -6861,25 +7399,25 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="J60" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="K60" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="L60" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="O60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -6891,21 +7429,25 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X60" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y60" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>16503</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>88</v>
+      </c>
+      <c r="C61" t="s">
+        <v>557</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
@@ -6913,7 +7455,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -6922,22 +7464,22 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="J61" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="K61" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="L61" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="O61" t="s">
         <v>53</v>
@@ -6958,21 +7500,25 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="X61" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y61" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>16503</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>126904</v>
+      </c>
+      <c r="C62" t="s">
+        <v>565</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
@@ -6980,7 +7526,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -6989,22 +7535,22 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="J62" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="K62" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="L62" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="O62" t="s">
         <v>53</v>
@@ -7023,21 +7569,25 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X62" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y62" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>16503</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>5462</v>
+      </c>
+      <c r="C63" t="s">
+        <v>572</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
@@ -7045,7 +7595,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -7054,25 +7604,25 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="J63" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="K63" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="L63" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="O63" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -7088,21 +7638,25 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="X63" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="Y63" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>16503</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>4881</v>
+      </c>
+      <c r="C64" t="s">
+        <v>579</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
@@ -7110,7 +7664,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -7119,22 +7673,22 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="J64" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="K64" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="L64" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="O64" t="s">
         <v>53</v>
@@ -7153,21 +7707,25 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="X64" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
       <c r="Y64" t="s">
-        <v>526</v>
+        <v>587</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>16503</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>126905</v>
+      </c>
+      <c r="C65" t="s">
+        <v>588</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
@@ -7175,7 +7733,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -7184,22 +7742,22 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="J65" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="K65" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="L65" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="O65" t="s">
         <v>53</v>
@@ -7224,21 +7782,25 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X65" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y65" t="s">
-        <v>532</v>
+        <v>594</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>16503</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>126906</v>
+      </c>
+      <c r="C66" t="s">
+        <v>595</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
@@ -7246,7 +7808,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -7255,22 +7817,22 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="J66" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="K66" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="L66" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="O66" t="s">
         <v>53</v>
@@ -7295,21 +7857,25 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X66" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y66" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>16503</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>126907</v>
+      </c>
+      <c r="C67" t="s">
+        <v>602</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
@@ -7317,7 +7883,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>539</v>
+        <v>603</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -7326,22 +7892,22 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="J67" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="K67" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="L67" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="O67" t="s">
         <v>53</v>
@@ -7366,21 +7932,25 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X67" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y67" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>16503</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>126908</v>
+      </c>
+      <c r="C68" t="s">
+        <v>608</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
@@ -7388,7 +7958,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>544</v>
+        <v>609</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -7397,16 +7967,16 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="J68" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="K68" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="L68" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -7433,21 +8003,25 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X68" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y68" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>16503</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>126909</v>
+      </c>
+      <c r="C69" t="s">
+        <v>615</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
@@ -7455,7 +8029,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>550</v>
+        <v>616</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -7464,25 +8038,25 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>551</v>
+        <v>617</v>
       </c>
       <c r="J69" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="K69" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="L69" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="O69" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7504,21 +8078,25 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="X69" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="Y69" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>16503</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>1063</v>
+      </c>
+      <c r="C70" t="s">
+        <v>624</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
@@ -7526,7 +8104,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>558</v>
+        <v>625</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -7535,22 +8113,22 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>559</v>
+        <v>626</v>
       </c>
       <c r="J70" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="K70" t="s">
-        <v>561</v>
+        <v>628</v>
       </c>
       <c r="L70" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="O70" t="s">
         <v>53</v>
@@ -7565,21 +8143,25 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="X70" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="Y70" t="s">
-        <v>563</v>
+        <v>630</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>16503</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>91052</v>
+      </c>
+      <c r="C71" t="s">
+        <v>631</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
@@ -7587,7 +8169,7 @@
         <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>564</v>
+        <v>632</v>
       </c>
       <c r="G71" t="s">
         <v>46</v>
@@ -7596,22 +8178,22 @@
         <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>565</v>
+        <v>633</v>
       </c>
       <c r="J71" t="s">
-        <v>566</v>
+        <v>634</v>
       </c>
       <c r="K71" t="s">
-        <v>567</v>
+        <v>635</v>
       </c>
       <c r="L71" t="s">
-        <v>568</v>
+        <v>636</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="O71" t="s">
         <v>53</v>
@@ -7626,21 +8208,25 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>570</v>
+        <v>638</v>
       </c>
       <c r="X71" t="s">
-        <v>571</v>
+        <v>639</v>
       </c>
       <c r="Y71" t="s">
-        <v>572</v>
+        <v>640</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>16503</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>2948</v>
+      </c>
+      <c r="C72" t="s">
+        <v>641</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
@@ -7648,7 +8234,7 @@
         <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>573</v>
+        <v>642</v>
       </c>
       <c r="G72" t="s">
         <v>46</v>
@@ -7657,22 +8243,22 @@
         <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>574</v>
+        <v>643</v>
       </c>
       <c r="J72" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="K72" t="s">
-        <v>576</v>
+        <v>645</v>
       </c>
       <c r="L72" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="O72" t="s">
         <v>53</v>
@@ -7697,21 +8283,25 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>578</v>
+        <v>647</v>
       </c>
       <c r="X72" t="s">
-        <v>579</v>
+        <v>648</v>
       </c>
       <c r="Y72" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>16503</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>126910</v>
+      </c>
+      <c r="C73" t="s">
+        <v>650</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
@@ -7719,7 +8309,7 @@
         <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>581</v>
+        <v>651</v>
       </c>
       <c r="G73" t="s">
         <v>46</v>
@@ -7728,16 +8318,16 @@
         <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="J73" t="s">
-        <v>575</v>
+        <v>644</v>
       </c>
       <c r="K73" t="s">
-        <v>583</v>
+        <v>653</v>
       </c>
       <c r="L73" t="s">
-        <v>584</v>
+        <v>654</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
@@ -7764,21 +8354,25 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="X73" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
       <c r="Y73" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>16503</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>126911</v>
+      </c>
+      <c r="C74" t="s">
+        <v>658</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
@@ -7786,7 +8380,7 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>588</v>
+        <v>659</v>
       </c>
       <c r="G74" t="s">
         <v>46</v>
@@ -7795,25 +8389,25 @@
         <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>589</v>
+        <v>660</v>
       </c>
       <c r="J74" t="s">
-        <v>590</v>
+        <v>661</v>
       </c>
       <c r="K74" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="L74" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="O74" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7825,21 +8419,25 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="X74" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="Y74" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>16503</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>3277</v>
+      </c>
+      <c r="C75" t="s">
+        <v>667</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
@@ -7847,7 +8445,7 @@
         <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="G75" t="s">
         <v>46</v>
@@ -7856,22 +8454,22 @@
         <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>597</v>
+        <v>669</v>
       </c>
       <c r="J75" t="s">
-        <v>598</v>
+        <v>670</v>
       </c>
       <c r="K75" t="s">
-        <v>599</v>
+        <v>671</v>
       </c>
       <c r="L75" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>569</v>
+        <v>637</v>
       </c>
       <c r="O75" t="s">
         <v>53</v>
@@ -7896,21 +8494,25 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="X75" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="Y75" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>16503</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>126912</v>
+      </c>
+      <c r="C76" t="s">
+        <v>676</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
@@ -7918,7 +8520,7 @@
         <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>604</v>
+        <v>677</v>
       </c>
       <c r="G76" t="s">
         <v>46</v>
@@ -7927,16 +8529,16 @@
         <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="J76" t="s">
-        <v>606</v>
+        <v>679</v>
       </c>
       <c r="K76" t="s">
-        <v>607</v>
+        <v>680</v>
       </c>
       <c r="L76" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
@@ -7963,21 +8565,25 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="X76" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="Y76" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>16503</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>126913</v>
+      </c>
+      <c r="C77" t="s">
+        <v>683</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
@@ -7985,7 +8591,7 @@
         <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>610</v>
+        <v>684</v>
       </c>
       <c r="G77" t="s">
         <v>46</v>
@@ -7994,22 +8600,22 @@
         <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>611</v>
+        <v>685</v>
       </c>
       <c r="J77" t="s">
-        <v>612</v>
+        <v>686</v>
       </c>
       <c r="K77" t="s">
-        <v>613</v>
+        <v>687</v>
       </c>
       <c r="L77" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="O77" t="s">
         <v>53</v>
@@ -8024,21 +8630,25 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="X77" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
       <c r="Y77" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>16503</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>126884</v>
+      </c>
+      <c r="C78" t="s">
+        <v>358</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
@@ -8046,7 +8656,7 @@
         <v>44</v>
       </c>
       <c r="F78" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
       <c r="G78" t="s">
         <v>46</v>
@@ -8055,22 +8665,22 @@
         <v>47</v>
       </c>
       <c r="I78" t="s">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="J78" t="s">
-        <v>621</v>
+        <v>695</v>
       </c>
       <c r="K78" t="s">
-        <v>622</v>
+        <v>696</v>
       </c>
       <c r="L78" t="s">
-        <v>623</v>
+        <v>697</v>
       </c>
       <c r="M78" t="n">
         <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
       <c r="O78" t="s">
         <v>53</v>
@@ -8095,21 +8705,25 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
       <c r="X78" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="Y78" t="s">
-        <v>627</v>
+        <v>701</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>16503</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>126914</v>
+      </c>
+      <c r="C79" t="s">
+        <v>702</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
@@ -8117,7 +8731,7 @@
         <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>628</v>
+        <v>703</v>
       </c>
       <c r="G79" t="s">
         <v>46</v>
@@ -8126,22 +8740,22 @@
         <v>47</v>
       </c>
       <c r="I79" t="s">
-        <v>629</v>
+        <v>704</v>
       </c>
       <c r="J79" t="s">
-        <v>630</v>
+        <v>705</v>
       </c>
       <c r="K79" t="s">
-        <v>631</v>
+        <v>706</v>
       </c>
       <c r="L79" t="s">
-        <v>632</v>
+        <v>707</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>633</v>
+        <v>708</v>
       </c>
       <c r="O79" t="s">
         <v>53</v>
@@ -8166,21 +8780,25 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="X79" t="s">
-        <v>635</v>
+        <v>710</v>
       </c>
       <c r="Y79" t="s">
-        <v>636</v>
+        <v>711</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>16503</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>59040</v>
+      </c>
+      <c r="C80" t="s">
+        <v>712</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
@@ -8188,7 +8806,7 @@
         <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>637</v>
+        <v>713</v>
       </c>
       <c r="G80" t="s">
         <v>46</v>
@@ -8197,22 +8815,22 @@
         <v>47</v>
       </c>
       <c r="I80" t="s">
-        <v>638</v>
+        <v>714</v>
       </c>
       <c r="J80" t="s">
-        <v>639</v>
+        <v>715</v>
       </c>
       <c r="K80" t="s">
-        <v>640</v>
+        <v>716</v>
       </c>
       <c r="L80" t="s">
-        <v>641</v>
+        <v>717</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
       <c r="O80" t="s">
         <v>53</v>
@@ -8237,21 +8855,25 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>642</v>
+        <v>718</v>
       </c>
       <c r="X80" t="s">
-        <v>643</v>
+        <v>719</v>
       </c>
       <c r="Y80" t="s">
-        <v>644</v>
+        <v>720</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>16503</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>126915</v>
+      </c>
+      <c r="C81" t="s">
+        <v>721</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
@@ -8259,7 +8881,7 @@
         <v>44</v>
       </c>
       <c r="F81" t="s">
-        <v>645</v>
+        <v>722</v>
       </c>
       <c r="G81" t="s">
         <v>46</v>
@@ -8268,22 +8890,22 @@
         <v>47</v>
       </c>
       <c r="I81" t="s">
-        <v>646</v>
+        <v>723</v>
       </c>
       <c r="J81" t="s">
-        <v>647</v>
+        <v>724</v>
       </c>
       <c r="K81" t="s">
-        <v>648</v>
+        <v>725</v>
       </c>
       <c r="L81" t="s">
-        <v>649</v>
+        <v>726</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="O81" t="s">
         <v>53</v>
@@ -8308,21 +8930,25 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="X81" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="Y81" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>16503</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>126916</v>
+      </c>
+      <c r="C82" t="s">
+        <v>731</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
@@ -8330,7 +8956,7 @@
         <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>654</v>
+        <v>732</v>
       </c>
       <c r="G82" t="s">
         <v>46</v>
@@ -8339,22 +8965,22 @@
         <v>47</v>
       </c>
       <c r="I82" t="s">
-        <v>655</v>
+        <v>733</v>
       </c>
       <c r="J82" t="s">
-        <v>656</v>
+        <v>734</v>
       </c>
       <c r="K82" t="s">
-        <v>657</v>
+        <v>735</v>
       </c>
       <c r="L82" t="s">
-        <v>658</v>
+        <v>736</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>650</v>
+        <v>727</v>
       </c>
       <c r="O82" t="s">
         <v>53</v>
@@ -8379,21 +9005,25 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
       <c r="X82" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="Y82" t="s">
-        <v>661</v>
+        <v>739</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>16503</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>126917</v>
+      </c>
+      <c r="C83" t="s">
+        <v>740</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
@@ -8401,7 +9031,7 @@
         <v>44</v>
       </c>
       <c r="F83" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="G83" t="s">
         <v>46</v>
@@ -8410,25 +9040,25 @@
         <v>47</v>
       </c>
       <c r="I83" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="J83" t="s">
-        <v>664</v>
+        <v>743</v>
       </c>
       <c r="K83" t="s">
-        <v>665</v>
+        <v>744</v>
       </c>
       <c r="L83" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="O83" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P83" t="s"/>
       <c r="Q83" t="s"/>
@@ -8440,21 +9070,25 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="X83" t="s">
-        <v>669</v>
+        <v>748</v>
       </c>
       <c r="Y83" t="s">
-        <v>670</v>
+        <v>749</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>16503</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>126918</v>
+      </c>
+      <c r="C84" t="s">
+        <v>750</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
@@ -8462,7 +9096,7 @@
         <v>44</v>
       </c>
       <c r="F84" t="s">
-        <v>671</v>
+        <v>751</v>
       </c>
       <c r="G84" t="s">
         <v>46</v>
@@ -8471,25 +9105,25 @@
         <v>47</v>
       </c>
       <c r="I84" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="J84" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
       <c r="K84" t="s">
-        <v>674</v>
+        <v>754</v>
       </c>
       <c r="L84" t="s">
-        <v>675</v>
+        <v>755</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>676</v>
+        <v>756</v>
       </c>
       <c r="O84" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8511,21 +9145,25 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X84" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y84" t="s">
-        <v>677</v>
+        <v>757</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>16503</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>126919</v>
+      </c>
+      <c r="C85" t="s">
+        <v>758</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
@@ -8533,7 +9171,7 @@
         <v>44</v>
       </c>
       <c r="F85" t="s">
-        <v>678</v>
+        <v>759</v>
       </c>
       <c r="G85" t="s">
         <v>46</v>
@@ -8542,22 +9180,22 @@
         <v>47</v>
       </c>
       <c r="I85" t="s">
-        <v>679</v>
+        <v>760</v>
       </c>
       <c r="J85" t="s">
-        <v>680</v>
+        <v>761</v>
       </c>
       <c r="K85" t="s">
-        <v>681</v>
+        <v>762</v>
       </c>
       <c r="L85" t="s">
-        <v>682</v>
+        <v>763</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>683</v>
+        <v>764</v>
       </c>
       <c r="O85" t="s">
         <v>53</v>
@@ -8582,21 +9220,25 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X85" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y85" t="s">
-        <v>684</v>
+        <v>765</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>16503</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>15829</v>
+      </c>
+      <c r="C86" t="s">
+        <v>296</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
@@ -8604,7 +9246,7 @@
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>685</v>
+        <v>766</v>
       </c>
       <c r="G86" t="s">
         <v>46</v>
@@ -8613,22 +9255,22 @@
         <v>47</v>
       </c>
       <c r="I86" t="s">
-        <v>686</v>
+        <v>767</v>
       </c>
       <c r="J86" t="s">
-        <v>687</v>
+        <v>768</v>
       </c>
       <c r="K86" t="s">
-        <v>688</v>
+        <v>769</v>
       </c>
       <c r="L86" t="s">
-        <v>689</v>
+        <v>770</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="O86" t="s">
         <v>53</v>
@@ -8653,21 +9295,25 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X86" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y86" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>16503</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>39720</v>
+      </c>
+      <c r="C87" t="s">
+        <v>773</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
@@ -8675,7 +9321,7 @@
         <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
       <c r="G87" t="s">
         <v>46</v>
@@ -8684,25 +9330,25 @@
         <v>47</v>
       </c>
       <c r="I87" t="s">
-        <v>693</v>
+        <v>775</v>
       </c>
       <c r="J87" t="s">
-        <v>694</v>
+        <v>776</v>
       </c>
       <c r="K87" t="s">
-        <v>695</v>
+        <v>777</v>
       </c>
       <c r="L87" t="s">
-        <v>696</v>
+        <v>778</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>697</v>
+        <v>779</v>
       </c>
       <c r="O87" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8724,21 +9370,25 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="X87" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="Y87" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>16503</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>41652</v>
+      </c>
+      <c r="C88" t="s">
+        <v>783</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
@@ -8746,7 +9396,7 @@
         <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>701</v>
+        <v>784</v>
       </c>
       <c r="G88" t="s">
         <v>46</v>
@@ -8755,22 +9405,22 @@
         <v>47</v>
       </c>
       <c r="I88" t="s">
-        <v>702</v>
+        <v>785</v>
       </c>
       <c r="J88" t="s">
-        <v>703</v>
+        <v>786</v>
       </c>
       <c r="K88" t="s">
-        <v>704</v>
+        <v>787</v>
       </c>
       <c r="L88" t="s">
-        <v>705</v>
+        <v>788</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="O88" t="s">
         <v>53</v>
@@ -8795,21 +9445,25 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X88" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y88" t="s">
-        <v>706</v>
+        <v>789</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>16503</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C89" t="s">
+        <v>790</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
@@ -8817,7 +9471,7 @@
         <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>707</v>
+        <v>791</v>
       </c>
       <c r="G89" t="s">
         <v>46</v>
@@ -8826,25 +9480,25 @@
         <v>47</v>
       </c>
       <c r="I89" t="s">
-        <v>708</v>
+        <v>792</v>
       </c>
       <c r="J89" t="s">
-        <v>703</v>
+        <v>786</v>
       </c>
       <c r="K89" t="s">
-        <v>709</v>
+        <v>793</v>
       </c>
       <c r="L89" t="s">
-        <v>710</v>
+        <v>794</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>690</v>
+        <v>771</v>
       </c>
       <c r="O89" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8864,21 +9518,25 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X89" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y89" t="s">
-        <v>711</v>
+        <v>795</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>16503</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>47343</v>
+      </c>
+      <c r="C90" t="s">
+        <v>796</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
@@ -8886,7 +9544,7 @@
         <v>44</v>
       </c>
       <c r="F90" t="s">
-        <v>712</v>
+        <v>797</v>
       </c>
       <c r="G90" t="s">
         <v>46</v>
@@ -8895,22 +9553,22 @@
         <v>47</v>
       </c>
       <c r="I90" t="s">
-        <v>713</v>
+        <v>798</v>
       </c>
       <c r="J90" t="s">
-        <v>714</v>
+        <v>799</v>
       </c>
       <c r="K90" t="s">
-        <v>715</v>
+        <v>800</v>
       </c>
       <c r="L90" t="s">
-        <v>716</v>
+        <v>801</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>717</v>
+        <v>802</v>
       </c>
       <c r="O90" t="s">
         <v>53</v>
@@ -8935,21 +9593,25 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>718</v>
+        <v>803</v>
       </c>
       <c r="X90" t="s">
-        <v>719</v>
+        <v>804</v>
       </c>
       <c r="Y90" t="s">
-        <v>720</v>
+        <v>805</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>16503</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>126920</v>
+      </c>
+      <c r="C91" t="s">
+        <v>806</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
@@ -8957,7 +9619,7 @@
         <v>44</v>
       </c>
       <c r="F91" t="s">
-        <v>721</v>
+        <v>807</v>
       </c>
       <c r="G91" t="s">
         <v>46</v>
@@ -8966,22 +9628,22 @@
         <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>722</v>
+        <v>808</v>
       </c>
       <c r="J91" t="s">
-        <v>723</v>
+        <v>809</v>
       </c>
       <c r="K91" t="s">
-        <v>724</v>
+        <v>810</v>
       </c>
       <c r="L91" t="s">
-        <v>725</v>
+        <v>811</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>726</v>
+        <v>812</v>
       </c>
       <c r="O91" t="s">
         <v>53</v>
@@ -9006,21 +9668,25 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="X91" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="Y91" t="s">
-        <v>727</v>
+        <v>813</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>16503</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>54731</v>
+      </c>
+      <c r="C92" t="s">
+        <v>814</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
@@ -9028,7 +9694,7 @@
         <v>44</v>
       </c>
       <c r="F92" t="s">
-        <v>728</v>
+        <v>815</v>
       </c>
       <c r="G92" t="s">
         <v>46</v>
@@ -9037,25 +9703,25 @@
         <v>47</v>
       </c>
       <c r="I92" t="s">
-        <v>729</v>
+        <v>816</v>
       </c>
       <c r="J92" t="s">
-        <v>730</v>
+        <v>817</v>
       </c>
       <c r="K92" t="s">
-        <v>731</v>
+        <v>818</v>
       </c>
       <c r="L92" t="s">
-        <v>732</v>
+        <v>819</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
       </c>
       <c r="N92" t="s">
-        <v>717</v>
+        <v>802</v>
       </c>
       <c r="O92" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -9077,21 +9743,25 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="X92" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="Y92" t="s">
-        <v>733</v>
+        <v>820</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>16503</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>126921</v>
+      </c>
+      <c r="C93" t="s">
+        <v>821</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
@@ -9099,7 +9769,7 @@
         <v>44</v>
       </c>
       <c r="F93" t="s">
-        <v>734</v>
+        <v>822</v>
       </c>
       <c r="G93" t="s">
         <v>46</v>
@@ -9108,16 +9778,16 @@
         <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>735</v>
+        <v>823</v>
       </c>
       <c r="J93" t="s">
-        <v>736</v>
+        <v>824</v>
       </c>
       <c r="K93" t="s">
-        <v>737</v>
+        <v>825</v>
       </c>
       <c r="L93" t="s">
-        <v>738</v>
+        <v>826</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
@@ -9144,21 +9814,25 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="X93" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="Y93" t="s">
-        <v>739</v>
+        <v>827</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>16503</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>126922</v>
+      </c>
+      <c r="C94" t="s">
+        <v>828</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
@@ -9166,7 +9840,7 @@
         <v>44</v>
       </c>
       <c r="F94" t="s">
-        <v>740</v>
+        <v>829</v>
       </c>
       <c r="G94" t="s">
         <v>46</v>
@@ -9175,22 +9849,22 @@
         <v>47</v>
       </c>
       <c r="I94" t="s">
-        <v>741</v>
+        <v>830</v>
       </c>
       <c r="J94" t="s">
-        <v>742</v>
+        <v>831</v>
       </c>
       <c r="K94" t="s">
-        <v>743</v>
+        <v>832</v>
       </c>
       <c r="L94" t="s">
-        <v>744</v>
+        <v>833</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>745</v>
+        <v>834</v>
       </c>
       <c r="O94" t="s">
         <v>53</v>
@@ -9215,21 +9889,25 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>746</v>
+        <v>835</v>
       </c>
       <c r="X94" t="s">
-        <v>747</v>
+        <v>836</v>
       </c>
       <c r="Y94" t="s">
-        <v>748</v>
+        <v>837</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>16503</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>2127</v>
+      </c>
+      <c r="C95" t="s">
+        <v>838</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
@@ -9237,7 +9915,7 @@
         <v>44</v>
       </c>
       <c r="F95" t="s">
-        <v>749</v>
+        <v>839</v>
       </c>
       <c r="G95" t="s">
         <v>46</v>
@@ -9246,25 +9924,25 @@
         <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>750</v>
+        <v>840</v>
       </c>
       <c r="J95" t="s">
-        <v>751</v>
+        <v>841</v>
       </c>
       <c r="K95" t="s">
-        <v>752</v>
+        <v>842</v>
       </c>
       <c r="L95" t="s">
-        <v>753</v>
+        <v>843</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>754</v>
+        <v>844</v>
       </c>
       <c r="O95" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="P95" t="s"/>
       <c r="Q95" t="s"/>
@@ -9276,21 +9954,25 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>755</v>
+        <v>845</v>
       </c>
       <c r="X95" t="s">
-        <v>756</v>
+        <v>846</v>
       </c>
       <c r="Y95" t="s">
-        <v>757</v>
+        <v>847</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>16503</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>126923</v>
+      </c>
+      <c r="C96" t="s">
+        <v>848</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
@@ -9298,7 +9980,7 @@
         <v>44</v>
       </c>
       <c r="F96" t="s">
-        <v>758</v>
+        <v>849</v>
       </c>
       <c r="G96" t="s">
         <v>46</v>
@@ -9307,22 +9989,22 @@
         <v>47</v>
       </c>
       <c r="I96" t="s">
-        <v>759</v>
+        <v>850</v>
       </c>
       <c r="J96" t="s">
-        <v>760</v>
+        <v>851</v>
       </c>
       <c r="K96" t="s">
-        <v>761</v>
+        <v>852</v>
       </c>
       <c r="L96" t="s">
-        <v>762</v>
+        <v>853</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>754</v>
+        <v>844</v>
       </c>
       <c r="O96" t="s">
         <v>53</v>
@@ -9347,21 +10029,25 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>763</v>
+        <v>854</v>
       </c>
       <c r="X96" t="s">
-        <v>764</v>
+        <v>855</v>
       </c>
       <c r="Y96" t="s">
-        <v>765</v>
+        <v>856</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>16503</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>97470</v>
+      </c>
+      <c r="C97" t="s">
+        <v>857</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
@@ -9369,7 +10055,7 @@
         <v>44</v>
       </c>
       <c r="F97" t="s">
-        <v>766</v>
+        <v>858</v>
       </c>
       <c r="G97" t="s">
         <v>46</v>
@@ -9378,25 +10064,25 @@
         <v>47</v>
       </c>
       <c r="I97" t="s">
-        <v>767</v>
+        <v>859</v>
       </c>
       <c r="J97" t="s">
-        <v>768</v>
+        <v>860</v>
       </c>
       <c r="K97" t="s">
-        <v>769</v>
+        <v>861</v>
       </c>
       <c r="L97" t="s">
-        <v>770</v>
+        <v>862</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>771</v>
+        <v>863</v>
       </c>
       <c r="O97" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -9418,21 +10104,25 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>772</v>
+        <v>864</v>
       </c>
       <c r="X97" t="s">
-        <v>773</v>
+        <v>865</v>
       </c>
       <c r="Y97" t="s">
-        <v>774</v>
+        <v>866</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>16503</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>4372</v>
+      </c>
+      <c r="C98" t="s">
+        <v>867</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
@@ -9440,7 +10130,7 @@
         <v>44</v>
       </c>
       <c r="F98" t="s">
-        <v>775</v>
+        <v>868</v>
       </c>
       <c r="G98" t="s">
         <v>46</v>
@@ -9449,22 +10139,22 @@
         <v>47</v>
       </c>
       <c r="I98" t="s">
-        <v>776</v>
+        <v>869</v>
       </c>
       <c r="J98" t="s">
-        <v>777</v>
+        <v>870</v>
       </c>
       <c r="K98" t="s">
-        <v>778</v>
+        <v>871</v>
       </c>
       <c r="L98" t="s">
-        <v>779</v>
+        <v>872</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>780</v>
+        <v>873</v>
       </c>
       <c r="O98" t="s">
         <v>53</v>
@@ -9489,21 +10179,25 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>781</v>
+        <v>874</v>
       </c>
       <c r="X98" t="s">
-        <v>782</v>
+        <v>875</v>
       </c>
       <c r="Y98" t="s">
-        <v>783</v>
+        <v>876</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>16503</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>126924</v>
+      </c>
+      <c r="C99" t="s">
+        <v>877</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
@@ -9511,7 +10205,7 @@
         <v>44</v>
       </c>
       <c r="F99" t="s">
-        <v>784</v>
+        <v>878</v>
       </c>
       <c r="G99" t="s">
         <v>46</v>
@@ -9520,22 +10214,22 @@
         <v>47</v>
       </c>
       <c r="I99" t="s">
-        <v>785</v>
+        <v>879</v>
       </c>
       <c r="J99" t="s">
-        <v>786</v>
+        <v>880</v>
       </c>
       <c r="K99" t="s">
-        <v>787</v>
+        <v>881</v>
       </c>
       <c r="L99" t="s">
-        <v>788</v>
+        <v>882</v>
       </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>789</v>
+        <v>883</v>
       </c>
       <c r="O99" t="s">
         <v>53</v>
@@ -9560,21 +10254,25 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>790</v>
+        <v>884</v>
       </c>
       <c r="X99" t="s">
-        <v>791</v>
+        <v>885</v>
       </c>
       <c r="Y99" t="s">
-        <v>792</v>
+        <v>886</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>16503</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>126925</v>
+      </c>
+      <c r="C100" t="s">
+        <v>887</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
@@ -9582,7 +10280,7 @@
         <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>793</v>
+        <v>888</v>
       </c>
       <c r="G100" t="s">
         <v>46</v>
@@ -9591,25 +10289,25 @@
         <v>47</v>
       </c>
       <c r="I100" t="s">
-        <v>794</v>
+        <v>889</v>
       </c>
       <c r="J100" t="s">
-        <v>795</v>
+        <v>890</v>
       </c>
       <c r="K100" t="s">
-        <v>796</v>
+        <v>891</v>
       </c>
       <c r="L100" t="s">
-        <v>797</v>
+        <v>892</v>
       </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
       <c r="N100" t="s">
-        <v>798</v>
+        <v>893</v>
       </c>
       <c r="O100" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P100" t="n">
         <v>2</v>
@@ -9631,21 +10329,25 @@
         <v>0</v>
       </c>
       <c r="W100" t="s">
-        <v>790</v>
+        <v>884</v>
       </c>
       <c r="X100" t="s">
-        <v>791</v>
+        <v>885</v>
       </c>
       <c r="Y100" t="s">
-        <v>799</v>
+        <v>894</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>16503</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>126926</v>
+      </c>
+      <c r="C101" t="s">
+        <v>895</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
@@ -9653,7 +10355,7 @@
         <v>44</v>
       </c>
       <c r="F101" t="s">
-        <v>800</v>
+        <v>896</v>
       </c>
       <c r="G101" t="s">
         <v>46</v>
@@ -9662,22 +10364,22 @@
         <v>47</v>
       </c>
       <c r="I101" t="s">
-        <v>801</v>
+        <v>897</v>
       </c>
       <c r="J101" t="s">
-        <v>802</v>
+        <v>898</v>
       </c>
       <c r="K101" t="s">
-        <v>803</v>
+        <v>899</v>
       </c>
       <c r="L101" t="s">
-        <v>804</v>
+        <v>900</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>805</v>
+        <v>901</v>
       </c>
       <c r="O101" t="s">
         <v>53</v>
@@ -9702,21 +10404,25 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X101" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y101" t="s">
-        <v>806</v>
+        <v>902</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>16503</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>126927</v>
+      </c>
+      <c r="C102" t="s">
+        <v>903</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
@@ -9724,7 +10430,7 @@
         <v>44</v>
       </c>
       <c r="F102" t="s">
-        <v>807</v>
+        <v>904</v>
       </c>
       <c r="G102" t="s">
         <v>46</v>
@@ -9733,22 +10439,22 @@
         <v>47</v>
       </c>
       <c r="I102" t="s">
-        <v>808</v>
+        <v>905</v>
       </c>
       <c r="J102" t="s">
-        <v>809</v>
+        <v>906</v>
       </c>
       <c r="K102" t="s">
-        <v>810</v>
+        <v>907</v>
       </c>
       <c r="L102" t="s">
-        <v>811</v>
+        <v>908</v>
       </c>
       <c r="M102" t="n">
         <v>2</v>
       </c>
       <c r="N102" t="s">
-        <v>812</v>
+        <v>909</v>
       </c>
       <c r="O102" t="s">
         <v>53</v>
@@ -9769,21 +10475,25 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X102" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y102" t="s">
-        <v>813</v>
+        <v>910</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>16503</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>126928</v>
+      </c>
+      <c r="C103" t="s">
+        <v>911</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
@@ -9791,7 +10501,7 @@
         <v>44</v>
       </c>
       <c r="F103" t="s">
-        <v>814</v>
+        <v>912</v>
       </c>
       <c r="G103" t="s">
         <v>46</v>
@@ -9800,25 +10510,25 @@
         <v>47</v>
       </c>
       <c r="I103" t="s">
-        <v>815</v>
+        <v>913</v>
       </c>
       <c r="J103" t="s">
-        <v>816</v>
+        <v>914</v>
       </c>
       <c r="K103" t="s">
-        <v>817</v>
+        <v>915</v>
       </c>
       <c r="L103" t="s">
-        <v>818</v>
+        <v>916</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>819</v>
+        <v>917</v>
       </c>
       <c r="O103" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9840,21 +10550,25 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X103" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y103" t="s">
-        <v>820</v>
+        <v>918</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>16503</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>126929</v>
+      </c>
+      <c r="C104" t="s">
+        <v>919</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
@@ -9862,7 +10576,7 @@
         <v>44</v>
       </c>
       <c r="F104" t="s">
-        <v>821</v>
+        <v>920</v>
       </c>
       <c r="G104" t="s">
         <v>46</v>
@@ -9871,25 +10585,25 @@
         <v>47</v>
       </c>
       <c r="I104" t="s">
-        <v>822</v>
+        <v>921</v>
       </c>
       <c r="J104" t="s">
-        <v>823</v>
+        <v>922</v>
       </c>
       <c r="K104" t="s">
-        <v>824</v>
+        <v>923</v>
       </c>
       <c r="L104" t="s">
-        <v>825</v>
+        <v>924</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
       </c>
       <c r="N104" t="s">
-        <v>812</v>
+        <v>909</v>
       </c>
       <c r="O104" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -9911,21 +10625,25 @@
         <v>0</v>
       </c>
       <c r="W104" t="s">
-        <v>790</v>
+        <v>884</v>
       </c>
       <c r="X104" t="s">
-        <v>791</v>
+        <v>885</v>
       </c>
       <c r="Y104" t="s">
-        <v>826</v>
+        <v>925</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>16503</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>57935</v>
+      </c>
+      <c r="C105" t="s">
+        <v>926</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
@@ -9933,7 +10651,7 @@
         <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>827</v>
+        <v>927</v>
       </c>
       <c r="G105" t="s">
         <v>46</v>
@@ -9942,25 +10660,25 @@
         <v>47</v>
       </c>
       <c r="I105" t="s">
-        <v>828</v>
+        <v>928</v>
       </c>
       <c r="J105" t="s">
-        <v>829</v>
+        <v>929</v>
       </c>
       <c r="K105" t="s">
-        <v>830</v>
+        <v>930</v>
       </c>
       <c r="L105" t="s">
-        <v>831</v>
+        <v>931</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>832</v>
+        <v>932</v>
       </c>
       <c r="O105" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9982,21 +10700,25 @@
         <v>0</v>
       </c>
       <c r="W105" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X105" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y105" t="s">
-        <v>833</v>
+        <v>933</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>16503</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>126930</v>
+      </c>
+      <c r="C106" t="s">
+        <v>934</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
@@ -10004,7 +10726,7 @@
         <v>44</v>
       </c>
       <c r="F106" t="s">
-        <v>834</v>
+        <v>935</v>
       </c>
       <c r="G106" t="s">
         <v>46</v>
@@ -10013,22 +10735,22 @@
         <v>47</v>
       </c>
       <c r="I106" t="s">
-        <v>835</v>
+        <v>936</v>
       </c>
       <c r="J106" t="s">
-        <v>836</v>
+        <v>937</v>
       </c>
       <c r="K106" t="s">
-        <v>837</v>
+        <v>938</v>
       </c>
       <c r="L106" t="s">
-        <v>838</v>
+        <v>939</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>839</v>
+        <v>940</v>
       </c>
       <c r="O106" t="s">
         <v>53</v>
@@ -10053,21 +10775,25 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X106" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y106" t="s">
-        <v>840</v>
+        <v>941</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>16503</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>942</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
@@ -10075,7 +10801,7 @@
         <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>841</v>
+        <v>943</v>
       </c>
       <c r="G107" t="s">
         <v>46</v>
@@ -10084,16 +10810,16 @@
         <v>47</v>
       </c>
       <c r="I107" t="s">
-        <v>842</v>
+        <v>944</v>
       </c>
       <c r="J107" t="s">
-        <v>843</v>
+        <v>945</v>
       </c>
       <c r="K107" t="s">
-        <v>844</v>
+        <v>946</v>
       </c>
       <c r="L107" t="s">
-        <v>845</v>
+        <v>947</v>
       </c>
       <c r="M107" t="n">
         <v>3</v>
@@ -10118,13 +10844,13 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="X107" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="Y107" t="s">
-        <v>846</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
